--- a/Code/Results/Cases/Case_0_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.30697690987376</v>
+        <v>13.30697690987381</v>
       </c>
       <c r="D2">
-        <v>16.6932128363295</v>
+        <v>16.69321283632952</v>
       </c>
       <c r="E2">
         <v>17.77353766148927</v>
       </c>
       <c r="F2">
-        <v>120.8409440822279</v>
+        <v>120.8409440822275</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>88.76132319510047</v>
+        <v>88.76132319510015</v>
       </c>
       <c r="I2">
-        <v>20.93001253297563</v>
+        <v>20.93001253297562</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -441,25 +441,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11.44361307269341</v>
+        <v>11.44361307269351</v>
       </c>
       <c r="D3">
-        <v>14.39190739521686</v>
+        <v>14.39190739521696</v>
       </c>
       <c r="E3">
-        <v>15.27269216739473</v>
+        <v>15.27269216739484</v>
       </c>
       <c r="F3">
-        <v>104.4079579293382</v>
+        <v>104.4079579293383</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76.67073536733666</v>
+        <v>76.67073536733676</v>
       </c>
       <c r="I3">
-        <v>18.02994918313444</v>
+        <v>18.02994918313452</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -470,22 +470,22 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>10.53433913704127</v>
+        <v>10.53433913704117</v>
       </c>
       <c r="D4">
-        <v>13.2637801267466</v>
+        <v>13.26378012674656</v>
       </c>
       <c r="E4">
-        <v>14.05658296735586</v>
+        <v>14.0565829673559</v>
       </c>
       <c r="F4">
-        <v>96.31907136592559</v>
+        <v>96.31907136592565</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>70.71286158758122</v>
+        <v>70.71286158758126</v>
       </c>
       <c r="I4">
         <v>16.61528274019651</v>
@@ -499,22 +499,22 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>10.18730151995891</v>
+        <v>10.1873015199589</v>
       </c>
       <c r="D5">
-        <v>12.8324344998072</v>
+        <v>12.83243449980717</v>
       </c>
       <c r="E5">
-        <v>13.59296254501266</v>
+        <v>13.59296254501267</v>
       </c>
       <c r="F5">
-        <v>93.22492684656018</v>
+        <v>93.22492684655968</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>68.43236353211778</v>
+        <v>68.43236353211742</v>
       </c>
       <c r="I5">
         <v>16.07533503792217</v>
@@ -528,25 +528,25 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>10.13064062840697</v>
+        <v>10.13064062840685</v>
       </c>
       <c r="D6">
-        <v>12.76196911536302</v>
+        <v>12.76196911536297</v>
       </c>
       <c r="E6">
-        <v>13.51729055879038</v>
+        <v>13.51729055879026</v>
       </c>
       <c r="F6">
-        <v>92.71949199366108</v>
+        <v>92.71949199366048</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>68.05974973563642</v>
+        <v>68.05974973563602</v>
       </c>
       <c r="I6">
-        <v>15.98717416746369</v>
+        <v>15.98717416746359</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -557,25 +557,25 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>10.52958612248038</v>
+        <v>10.5295861224805</v>
       </c>
       <c r="D7">
-        <v>13.25787526652207</v>
+        <v>13.25787526652224</v>
       </c>
       <c r="E7">
-        <v>14.05023148593131</v>
+        <v>14.05023148593132</v>
       </c>
       <c r="F7">
-        <v>96.27671444288056</v>
+        <v>96.27671444288121</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>70.6816491092183</v>
+        <v>70.6816491092188</v>
       </c>
       <c r="I7">
-        <v>16.60788783055287</v>
+        <v>16.60788783055296</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -586,25 +586,25 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>12.5742314874099</v>
+        <v>12.57423148741001</v>
       </c>
       <c r="D8">
-        <v>15.7901309744772</v>
+        <v>15.79013097447723</v>
       </c>
       <c r="E8">
-        <v>16.78843194634789</v>
+        <v>16.78843194634791</v>
       </c>
       <c r="F8">
-        <v>114.4087990120691</v>
+        <v>114.4087990120694</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>84.03057841775839</v>
+        <v>84.03057841775862</v>
       </c>
       <c r="I8">
-        <v>19.78930899032696</v>
+        <v>19.78930899032694</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -615,25 +615,25 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>12.5742314874099</v>
+        <v>12.57423148741001</v>
       </c>
       <c r="D9">
-        <v>15.7901309744772</v>
+        <v>15.79013097447723</v>
       </c>
       <c r="E9">
-        <v>16.78843194634789</v>
+        <v>16.78843194634791</v>
       </c>
       <c r="F9">
-        <v>114.4087990120691</v>
+        <v>114.4087990120694</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>84.03057841775839</v>
+        <v>84.03057841775862</v>
       </c>
       <c r="I9">
-        <v>19.78930899032696</v>
+        <v>19.78930899032694</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -644,25 +644,25 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>12.5742314874099</v>
+        <v>12.57423148741001</v>
       </c>
       <c r="D10">
-        <v>15.7901309744772</v>
+        <v>15.79013097447723</v>
       </c>
       <c r="E10">
-        <v>16.78843194634789</v>
+        <v>16.78843194634791</v>
       </c>
       <c r="F10">
-        <v>114.4087990120691</v>
+        <v>114.4087990120694</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>84.03057841775839</v>
+        <v>84.03057841775862</v>
       </c>
       <c r="I10">
-        <v>19.78930899032696</v>
+        <v>19.78930899032694</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -673,25 +673,25 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>12.5742314874099</v>
+        <v>12.57423148741001</v>
       </c>
       <c r="D11">
-        <v>15.7901309744772</v>
+        <v>15.79013097447723</v>
       </c>
       <c r="E11">
-        <v>16.78843194634789</v>
+        <v>16.78843194634791</v>
       </c>
       <c r="F11">
-        <v>114.4087990120691</v>
+        <v>114.4087990120694</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>84.03057841775839</v>
+        <v>84.03057841775862</v>
       </c>
       <c r="I11">
-        <v>19.78930899032696</v>
+        <v>19.78930899032694</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -702,25 +702,25 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>12.5742314874099</v>
+        <v>12.57423148741001</v>
       </c>
       <c r="D12">
-        <v>15.7901309744772</v>
+        <v>15.79013097447723</v>
       </c>
       <c r="E12">
-        <v>16.78843194634789</v>
+        <v>16.78843194634791</v>
       </c>
       <c r="F12">
-        <v>114.4087990120691</v>
+        <v>114.4087990120694</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>84.03057841775839</v>
+        <v>84.03057841775862</v>
       </c>
       <c r="I12">
-        <v>19.78930899032696</v>
+        <v>19.78930899032694</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -731,25 +731,25 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>12.5742314874099</v>
+        <v>12.57423148741001</v>
       </c>
       <c r="D13">
-        <v>15.7901309744772</v>
+        <v>15.79013097447723</v>
       </c>
       <c r="E13">
-        <v>16.78843194634789</v>
+        <v>16.78843194634791</v>
       </c>
       <c r="F13">
-        <v>114.4087990120691</v>
+        <v>114.4087990120694</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>84.03057841775839</v>
+        <v>84.03057841775862</v>
       </c>
       <c r="I13">
-        <v>19.78930899032696</v>
+        <v>19.78930899032694</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -760,25 +760,25 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>12.5742314874099</v>
+        <v>12.57423148741001</v>
       </c>
       <c r="D14">
-        <v>15.7901309744772</v>
+        <v>15.79013097447723</v>
       </c>
       <c r="E14">
-        <v>16.78843194634789</v>
+        <v>16.78843194634791</v>
       </c>
       <c r="F14">
-        <v>114.4087990120691</v>
+        <v>114.4087990120694</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>84.03057841775839</v>
+        <v>84.03057841775862</v>
       </c>
       <c r="I14">
-        <v>19.78930899032696</v>
+        <v>19.78930899032694</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -789,25 +789,25 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>12.5742314874099</v>
+        <v>12.57423148741001</v>
       </c>
       <c r="D15">
-        <v>15.7901309744772</v>
+        <v>15.79013097447723</v>
       </c>
       <c r="E15">
-        <v>16.78843194634789</v>
+        <v>16.78843194634791</v>
       </c>
       <c r="F15">
-        <v>114.4087990120691</v>
+        <v>114.4087990120694</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>84.03057841775839</v>
+        <v>84.03057841775862</v>
       </c>
       <c r="I15">
-        <v>19.78930899032696</v>
+        <v>19.78930899032694</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>12.5742314874099</v>
+        <v>12.57423148741001</v>
       </c>
       <c r="D16">
-        <v>15.7901309744772</v>
+        <v>15.79013097447723</v>
       </c>
       <c r="E16">
-        <v>16.78843194634789</v>
+        <v>16.78843194634791</v>
       </c>
       <c r="F16">
-        <v>114.4087990120691</v>
+        <v>114.4087990120694</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>84.03057841775839</v>
+        <v>84.03057841775862</v>
       </c>
       <c r="I16">
-        <v>19.78930899032696</v>
+        <v>19.78930899032694</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>12.5742314874099</v>
+        <v>12.57423148741001</v>
       </c>
       <c r="D17">
-        <v>15.7901309744772</v>
+        <v>15.79013097447723</v>
       </c>
       <c r="E17">
-        <v>16.78843194634789</v>
+        <v>16.78843194634791</v>
       </c>
       <c r="F17">
-        <v>114.4087990120691</v>
+        <v>114.4087990120694</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>84.03057841775839</v>
+        <v>84.03057841775862</v>
       </c>
       <c r="I17">
-        <v>19.78930899032696</v>
+        <v>19.78930899032694</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -876,25 +876,25 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>12.5742314874099</v>
+        <v>12.57423148741001</v>
       </c>
       <c r="D18">
-        <v>15.7901309744772</v>
+        <v>15.79013097447723</v>
       </c>
       <c r="E18">
-        <v>16.78843194634789</v>
+        <v>16.78843194634791</v>
       </c>
       <c r="F18">
-        <v>114.4087990120691</v>
+        <v>114.4087990120694</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>84.03057841775839</v>
+        <v>84.03057841775862</v>
       </c>
       <c r="I18">
-        <v>19.78930899032696</v>
+        <v>19.78930899032694</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -905,25 +905,25 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>12.5742314874099</v>
+        <v>12.57423148741001</v>
       </c>
       <c r="D19">
-        <v>15.7901309744772</v>
+        <v>15.79013097447723</v>
       </c>
       <c r="E19">
-        <v>16.78843194634789</v>
+        <v>16.78843194634791</v>
       </c>
       <c r="F19">
-        <v>114.4087990120691</v>
+        <v>114.4087990120694</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>84.03057841775839</v>
+        <v>84.03057841775862</v>
       </c>
       <c r="I19">
-        <v>19.78930899032696</v>
+        <v>19.78930899032694</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -934,25 +934,25 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>12.5742314874099</v>
+        <v>12.57423148741001</v>
       </c>
       <c r="D20">
-        <v>15.7901309744772</v>
+        <v>15.79013097447723</v>
       </c>
       <c r="E20">
-        <v>16.78843194634789</v>
+        <v>16.78843194634791</v>
       </c>
       <c r="F20">
-        <v>114.4087990120691</v>
+        <v>114.4087990120694</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>84.03057841775839</v>
+        <v>84.03057841775862</v>
       </c>
       <c r="I20">
-        <v>19.78930899032696</v>
+        <v>19.78930899032694</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -963,25 +963,25 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>12.5742314874099</v>
+        <v>12.57423148741001</v>
       </c>
       <c r="D21">
-        <v>15.7901309744772</v>
+        <v>15.79013097447723</v>
       </c>
       <c r="E21">
-        <v>16.78843194634789</v>
+        <v>16.78843194634791</v>
       </c>
       <c r="F21">
-        <v>114.4087990120691</v>
+        <v>114.4087990120694</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>84.03057841775839</v>
+        <v>84.03057841775862</v>
       </c>
       <c r="I21">
-        <v>19.78930899032696</v>
+        <v>19.78930899032694</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -992,25 +992,25 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>12.5742314874099</v>
+        <v>12.57423148741001</v>
       </c>
       <c r="D22">
-        <v>15.7901309744772</v>
+        <v>15.79013097447723</v>
       </c>
       <c r="E22">
-        <v>16.78843194634789</v>
+        <v>16.78843194634791</v>
       </c>
       <c r="F22">
-        <v>114.4087990120691</v>
+        <v>114.4087990120694</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>84.03057841775839</v>
+        <v>84.03057841775862</v>
       </c>
       <c r="I22">
-        <v>19.78930899032696</v>
+        <v>19.78930899032694</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1021,25 +1021,25 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>12.5742314874099</v>
+        <v>12.57423148741001</v>
       </c>
       <c r="D23">
-        <v>15.7901309744772</v>
+        <v>15.79013097447723</v>
       </c>
       <c r="E23">
-        <v>16.78843194634789</v>
+        <v>16.78843194634791</v>
       </c>
       <c r="F23">
-        <v>114.4087990120691</v>
+        <v>114.4087990120694</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>84.03057841775839</v>
+        <v>84.03057841775862</v>
       </c>
       <c r="I23">
-        <v>19.78930899032696</v>
+        <v>19.78930899032694</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1050,25 +1050,25 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>12.5742314874099</v>
+        <v>12.57423148741001</v>
       </c>
       <c r="D24">
-        <v>15.7901309744772</v>
+        <v>15.79013097447723</v>
       </c>
       <c r="E24">
-        <v>16.78843194634789</v>
+        <v>16.78843194634791</v>
       </c>
       <c r="F24">
-        <v>114.4087990120691</v>
+        <v>114.4087990120694</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>84.03057841775839</v>
+        <v>84.03057841775862</v>
       </c>
       <c r="I24">
-        <v>19.78930899032696</v>
+        <v>19.78930899032694</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>12.5742314874099</v>
+        <v>12.57423148741001</v>
       </c>
       <c r="D25">
-        <v>15.7901309744772</v>
+        <v>15.79013097447723</v>
       </c>
       <c r="E25">
-        <v>16.78843194634789</v>
+        <v>16.78843194634791</v>
       </c>
       <c r="F25">
-        <v>114.4087990120691</v>
+        <v>114.4087990120694</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>84.03057841775839</v>
+        <v>84.03057841775862</v>
       </c>
       <c r="I25">
-        <v>19.78930899032696</v>
+        <v>19.78930899032694</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.30697690987381</v>
+        <v>13.30697690987376</v>
       </c>
       <c r="D2">
-        <v>16.69321283632952</v>
+        <v>16.6932128363295</v>
       </c>
       <c r="E2">
         <v>17.77353766148927</v>
       </c>
       <c r="F2">
-        <v>120.8409440822275</v>
+        <v>120.8409440822279</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>88.76132319510015</v>
+        <v>88.76132319510047</v>
       </c>
       <c r="I2">
-        <v>20.93001253297562</v>
+        <v>20.93001253297563</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -441,25 +441,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11.44361307269351</v>
+        <v>11.44361307269341</v>
       </c>
       <c r="D3">
-        <v>14.39190739521696</v>
+        <v>14.39190739521686</v>
       </c>
       <c r="E3">
-        <v>15.27269216739484</v>
+        <v>15.27269216739473</v>
       </c>
       <c r="F3">
-        <v>104.4079579293383</v>
+        <v>104.4079579293382</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76.67073536733676</v>
+        <v>76.67073536733666</v>
       </c>
       <c r="I3">
-        <v>18.02994918313452</v>
+        <v>18.02994918313444</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -470,22 +470,22 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>10.53433913704117</v>
+        <v>10.53433913704127</v>
       </c>
       <c r="D4">
-        <v>13.26378012674656</v>
+        <v>13.2637801267466</v>
       </c>
       <c r="E4">
-        <v>14.0565829673559</v>
+        <v>14.05658296735586</v>
       </c>
       <c r="F4">
-        <v>96.31907136592565</v>
+        <v>96.31907136592559</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>70.71286158758126</v>
+        <v>70.71286158758122</v>
       </c>
       <c r="I4">
         <v>16.61528274019651</v>
@@ -499,22 +499,22 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>10.1873015199589</v>
+        <v>10.18730151995891</v>
       </c>
       <c r="D5">
-        <v>12.83243449980717</v>
+        <v>12.8324344998072</v>
       </c>
       <c r="E5">
-        <v>13.59296254501267</v>
+        <v>13.59296254501266</v>
       </c>
       <c r="F5">
-        <v>93.22492684655968</v>
+        <v>93.22492684656018</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>68.43236353211742</v>
+        <v>68.43236353211778</v>
       </c>
       <c r="I5">
         <v>16.07533503792217</v>
@@ -528,25 +528,25 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>10.13064062840685</v>
+        <v>10.13064062840697</v>
       </c>
       <c r="D6">
-        <v>12.76196911536297</v>
+        <v>12.76196911536302</v>
       </c>
       <c r="E6">
-        <v>13.51729055879026</v>
+        <v>13.51729055879038</v>
       </c>
       <c r="F6">
-        <v>92.71949199366048</v>
+        <v>92.71949199366108</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>68.05974973563602</v>
+        <v>68.05974973563642</v>
       </c>
       <c r="I6">
-        <v>15.98717416746359</v>
+        <v>15.98717416746369</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -557,25 +557,25 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>10.5295861224805</v>
+        <v>10.52958612248038</v>
       </c>
       <c r="D7">
-        <v>13.25787526652224</v>
+        <v>13.25787526652207</v>
       </c>
       <c r="E7">
-        <v>14.05023148593132</v>
+        <v>14.05023148593131</v>
       </c>
       <c r="F7">
-        <v>96.27671444288121</v>
+        <v>96.27671444288056</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>70.6816491092188</v>
+        <v>70.6816491092183</v>
       </c>
       <c r="I7">
-        <v>16.60788783055296</v>
+        <v>16.60788783055287</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -586,25 +586,25 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>12.57423148741001</v>
+        <v>12.5742314874099</v>
       </c>
       <c r="D8">
-        <v>15.79013097447723</v>
+        <v>15.7901309744772</v>
       </c>
       <c r="E8">
-        <v>16.78843194634791</v>
+        <v>16.78843194634789</v>
       </c>
       <c r="F8">
-        <v>114.4087990120694</v>
+        <v>114.4087990120691</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>84.03057841775862</v>
+        <v>84.03057841775839</v>
       </c>
       <c r="I8">
-        <v>19.78930899032694</v>
+        <v>19.78930899032696</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -615,25 +615,25 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>12.57423148741001</v>
+        <v>12.5742314874099</v>
       </c>
       <c r="D9">
-        <v>15.79013097447723</v>
+        <v>15.7901309744772</v>
       </c>
       <c r="E9">
-        <v>16.78843194634791</v>
+        <v>16.78843194634789</v>
       </c>
       <c r="F9">
-        <v>114.4087990120694</v>
+        <v>114.4087990120691</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>84.03057841775862</v>
+        <v>84.03057841775839</v>
       </c>
       <c r="I9">
-        <v>19.78930899032694</v>
+        <v>19.78930899032696</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -644,25 +644,25 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>12.57423148741001</v>
+        <v>12.5742314874099</v>
       </c>
       <c r="D10">
-        <v>15.79013097447723</v>
+        <v>15.7901309744772</v>
       </c>
       <c r="E10">
-        <v>16.78843194634791</v>
+        <v>16.78843194634789</v>
       </c>
       <c r="F10">
-        <v>114.4087990120694</v>
+        <v>114.4087990120691</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>84.03057841775862</v>
+        <v>84.03057841775839</v>
       </c>
       <c r="I10">
-        <v>19.78930899032694</v>
+        <v>19.78930899032696</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -673,25 +673,25 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>12.57423148741001</v>
+        <v>12.5742314874099</v>
       </c>
       <c r="D11">
-        <v>15.79013097447723</v>
+        <v>15.7901309744772</v>
       </c>
       <c r="E11">
-        <v>16.78843194634791</v>
+        <v>16.78843194634789</v>
       </c>
       <c r="F11">
-        <v>114.4087990120694</v>
+        <v>114.4087990120691</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>84.03057841775862</v>
+        <v>84.03057841775839</v>
       </c>
       <c r="I11">
-        <v>19.78930899032694</v>
+        <v>19.78930899032696</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -702,25 +702,25 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>12.57423148741001</v>
+        <v>12.5742314874099</v>
       </c>
       <c r="D12">
-        <v>15.79013097447723</v>
+        <v>15.7901309744772</v>
       </c>
       <c r="E12">
-        <v>16.78843194634791</v>
+        <v>16.78843194634789</v>
       </c>
       <c r="F12">
-        <v>114.4087990120694</v>
+        <v>114.4087990120691</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>84.03057841775862</v>
+        <v>84.03057841775839</v>
       </c>
       <c r="I12">
-        <v>19.78930899032694</v>
+        <v>19.78930899032696</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -731,25 +731,25 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>12.57423148741001</v>
+        <v>12.5742314874099</v>
       </c>
       <c r="D13">
-        <v>15.79013097447723</v>
+        <v>15.7901309744772</v>
       </c>
       <c r="E13">
-        <v>16.78843194634791</v>
+        <v>16.78843194634789</v>
       </c>
       <c r="F13">
-        <v>114.4087990120694</v>
+        <v>114.4087990120691</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>84.03057841775862</v>
+        <v>84.03057841775839</v>
       </c>
       <c r="I13">
-        <v>19.78930899032694</v>
+        <v>19.78930899032696</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -760,25 +760,25 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>12.57423148741001</v>
+        <v>12.5742314874099</v>
       </c>
       <c r="D14">
-        <v>15.79013097447723</v>
+        <v>15.7901309744772</v>
       </c>
       <c r="E14">
-        <v>16.78843194634791</v>
+        <v>16.78843194634789</v>
       </c>
       <c r="F14">
-        <v>114.4087990120694</v>
+        <v>114.4087990120691</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>84.03057841775862</v>
+        <v>84.03057841775839</v>
       </c>
       <c r="I14">
-        <v>19.78930899032694</v>
+        <v>19.78930899032696</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -789,25 +789,25 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>12.57423148741001</v>
+        <v>12.5742314874099</v>
       </c>
       <c r="D15">
-        <v>15.79013097447723</v>
+        <v>15.7901309744772</v>
       </c>
       <c r="E15">
-        <v>16.78843194634791</v>
+        <v>16.78843194634789</v>
       </c>
       <c r="F15">
-        <v>114.4087990120694</v>
+        <v>114.4087990120691</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>84.03057841775862</v>
+        <v>84.03057841775839</v>
       </c>
       <c r="I15">
-        <v>19.78930899032694</v>
+        <v>19.78930899032696</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>12.57423148741001</v>
+        <v>12.5742314874099</v>
       </c>
       <c r="D16">
-        <v>15.79013097447723</v>
+        <v>15.7901309744772</v>
       </c>
       <c r="E16">
-        <v>16.78843194634791</v>
+        <v>16.78843194634789</v>
       </c>
       <c r="F16">
-        <v>114.4087990120694</v>
+        <v>114.4087990120691</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>84.03057841775862</v>
+        <v>84.03057841775839</v>
       </c>
       <c r="I16">
-        <v>19.78930899032694</v>
+        <v>19.78930899032696</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>12.57423148741001</v>
+        <v>12.5742314874099</v>
       </c>
       <c r="D17">
-        <v>15.79013097447723</v>
+        <v>15.7901309744772</v>
       </c>
       <c r="E17">
-        <v>16.78843194634791</v>
+        <v>16.78843194634789</v>
       </c>
       <c r="F17">
-        <v>114.4087990120694</v>
+        <v>114.4087990120691</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>84.03057841775862</v>
+        <v>84.03057841775839</v>
       </c>
       <c r="I17">
-        <v>19.78930899032694</v>
+        <v>19.78930899032696</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -876,25 +876,25 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>12.57423148741001</v>
+        <v>12.5742314874099</v>
       </c>
       <c r="D18">
-        <v>15.79013097447723</v>
+        <v>15.7901309744772</v>
       </c>
       <c r="E18">
-        <v>16.78843194634791</v>
+        <v>16.78843194634789</v>
       </c>
       <c r="F18">
-        <v>114.4087990120694</v>
+        <v>114.4087990120691</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>84.03057841775862</v>
+        <v>84.03057841775839</v>
       </c>
       <c r="I18">
-        <v>19.78930899032694</v>
+        <v>19.78930899032696</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -905,25 +905,25 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>12.57423148741001</v>
+        <v>12.5742314874099</v>
       </c>
       <c r="D19">
-        <v>15.79013097447723</v>
+        <v>15.7901309744772</v>
       </c>
       <c r="E19">
-        <v>16.78843194634791</v>
+        <v>16.78843194634789</v>
       </c>
       <c r="F19">
-        <v>114.4087990120694</v>
+        <v>114.4087990120691</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>84.03057841775862</v>
+        <v>84.03057841775839</v>
       </c>
       <c r="I19">
-        <v>19.78930899032694</v>
+        <v>19.78930899032696</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -934,25 +934,25 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>12.57423148741001</v>
+        <v>12.5742314874099</v>
       </c>
       <c r="D20">
-        <v>15.79013097447723</v>
+        <v>15.7901309744772</v>
       </c>
       <c r="E20">
-        <v>16.78843194634791</v>
+        <v>16.78843194634789</v>
       </c>
       <c r="F20">
-        <v>114.4087990120694</v>
+        <v>114.4087990120691</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>84.03057841775862</v>
+        <v>84.03057841775839</v>
       </c>
       <c r="I20">
-        <v>19.78930899032694</v>
+        <v>19.78930899032696</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -963,25 +963,25 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>12.57423148741001</v>
+        <v>12.5742314874099</v>
       </c>
       <c r="D21">
-        <v>15.79013097447723</v>
+        <v>15.7901309744772</v>
       </c>
       <c r="E21">
-        <v>16.78843194634791</v>
+        <v>16.78843194634789</v>
       </c>
       <c r="F21">
-        <v>114.4087990120694</v>
+        <v>114.4087990120691</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>84.03057841775862</v>
+        <v>84.03057841775839</v>
       </c>
       <c r="I21">
-        <v>19.78930899032694</v>
+        <v>19.78930899032696</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -992,25 +992,25 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>12.57423148741001</v>
+        <v>12.5742314874099</v>
       </c>
       <c r="D22">
-        <v>15.79013097447723</v>
+        <v>15.7901309744772</v>
       </c>
       <c r="E22">
-        <v>16.78843194634791</v>
+        <v>16.78843194634789</v>
       </c>
       <c r="F22">
-        <v>114.4087990120694</v>
+        <v>114.4087990120691</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>84.03057841775862</v>
+        <v>84.03057841775839</v>
       </c>
       <c r="I22">
-        <v>19.78930899032694</v>
+        <v>19.78930899032696</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1021,25 +1021,25 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>12.57423148741001</v>
+        <v>12.5742314874099</v>
       </c>
       <c r="D23">
-        <v>15.79013097447723</v>
+        <v>15.7901309744772</v>
       </c>
       <c r="E23">
-        <v>16.78843194634791</v>
+        <v>16.78843194634789</v>
       </c>
       <c r="F23">
-        <v>114.4087990120694</v>
+        <v>114.4087990120691</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>84.03057841775862</v>
+        <v>84.03057841775839</v>
       </c>
       <c r="I23">
-        <v>19.78930899032694</v>
+        <v>19.78930899032696</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1050,25 +1050,25 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>12.57423148741001</v>
+        <v>12.5742314874099</v>
       </c>
       <c r="D24">
-        <v>15.79013097447723</v>
+        <v>15.7901309744772</v>
       </c>
       <c r="E24">
-        <v>16.78843194634791</v>
+        <v>16.78843194634789</v>
       </c>
       <c r="F24">
-        <v>114.4087990120694</v>
+        <v>114.4087990120691</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>84.03057841775862</v>
+        <v>84.03057841775839</v>
       </c>
       <c r="I24">
-        <v>19.78930899032694</v>
+        <v>19.78930899032696</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>12.57423148741001</v>
+        <v>12.5742314874099</v>
       </c>
       <c r="D25">
-        <v>15.79013097447723</v>
+        <v>15.7901309744772</v>
       </c>
       <c r="E25">
-        <v>16.78843194634791</v>
+        <v>16.78843194634789</v>
       </c>
       <c r="F25">
-        <v>114.4087990120694</v>
+        <v>114.4087990120691</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>84.03057841775862</v>
+        <v>84.03057841775839</v>
       </c>
       <c r="I25">
-        <v>19.78930899032694</v>
+        <v>19.78930899032696</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,700 +406,775 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.30697690987376</v>
+        <v>13.09472972568428</v>
       </c>
       <c r="D2">
-        <v>16.6932128363295</v>
+        <v>16.42477375418662</v>
       </c>
       <c r="E2">
-        <v>17.77353766148927</v>
+        <v>17.57823317052798</v>
       </c>
       <c r="F2">
-        <v>120.8409440822279</v>
+        <v>119.2760974181219</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.606717042923286</v>
       </c>
       <c r="H2">
-        <v>88.76132319510047</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>20.93001253297563</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>87.59498864745552</v>
+      </c>
+      <c r="J2">
+        <v>20.66192856618636</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11.44361307269341</v>
+        <v>11.30342550044554</v>
       </c>
       <c r="D3">
-        <v>14.39190739521686</v>
+        <v>14.20859395666793</v>
       </c>
       <c r="E3">
-        <v>15.27269216739473</v>
+        <v>15.16820186907873</v>
       </c>
       <c r="F3">
-        <v>104.4079579293382</v>
+        <v>103.4575676892771</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.716508978441315</v>
       </c>
       <c r="H3">
-        <v>76.67073536733666</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>18.02994918313444</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>75.95218023441824</v>
+      </c>
+      <c r="J3">
+        <v>17.86728874814128</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>10.53433913704127</v>
+        <v>10.41428450252694</v>
       </c>
       <c r="D4">
-        <v>13.2637801267466</v>
+        <v>13.10344571092467</v>
       </c>
       <c r="E4">
-        <v>14.05658296735586</v>
+        <v>13.9751187037665</v>
       </c>
       <c r="F4">
-        <v>96.31907136592559</v>
+        <v>95.544040479553</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.76749188049569</v>
       </c>
       <c r="H4">
-        <v>70.71286158758122</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>16.61528274019651</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>70.12085171009365</v>
+      </c>
+      <c r="J4">
+        <v>16.47976548420138</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>10.18730151995891</v>
+        <v>10.07376373571346</v>
       </c>
       <c r="D5">
-        <v>12.8324344998072</v>
+        <v>12.67937942511863</v>
       </c>
       <c r="E5">
-        <v>13.59296254501266</v>
+        <v>13.51853211172294</v>
       </c>
       <c r="F5">
-        <v>93.22492684656018</v>
+        <v>92.50734350192864</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.786401009802179</v>
       </c>
       <c r="H5">
-        <v>68.43236353211778</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>16.07533503792217</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>67.88157846459899</v>
+      </c>
+      <c r="J5">
+        <v>15.94817973919851</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>10.13064062840697</v>
+        <v>10.01812115249997</v>
       </c>
       <c r="D6">
-        <v>12.76196911536302</v>
+        <v>12.61004266418575</v>
       </c>
       <c r="E6">
-        <v>13.51729055879038</v>
+        <v>13.44393682441319</v>
       </c>
       <c r="F6">
-        <v>92.71949199366108</v>
+        <v>92.01092287250522</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.78945852230021</v>
       </c>
       <c r="H6">
-        <v>68.05974973563642</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>15.98717416746369</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>67.51542086643886</v>
+      </c>
+      <c r="J6">
+        <v>15.86130259742244</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>10.52958612248038</v>
+        <v>10.40962427763445</v>
       </c>
       <c r="D7">
-        <v>13.25787526652207</v>
+        <v>13.0976451407113</v>
       </c>
       <c r="E7">
-        <v>14.05023148593131</v>
+        <v>13.96886902606082</v>
       </c>
       <c r="F7">
-        <v>96.27671444288056</v>
+        <v>95.50249876807872</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.767752960856653</v>
       </c>
       <c r="H7">
-        <v>70.6816491092183</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>16.60788783055287</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>70.09022514914987</v>
+      </c>
+      <c r="J7">
+        <v>16.47249131973119</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>12.5742314874099</v>
+        <v>12.39817110865118</v>
       </c>
       <c r="D8">
-        <v>15.7901309744772</v>
+        <v>15.56477609716807</v>
       </c>
       <c r="E8">
-        <v>16.78843194634789</v>
+        <v>16.63978560500038</v>
       </c>
       <c r="F8">
-        <v>114.4087990120691</v>
+        <v>113.1508823849471</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.650531593289828</v>
       </c>
       <c r="H8">
-        <v>84.03057841775839</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>19.78930899032696</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>83.08845260932584</v>
+      </c>
+      <c r="J8">
+        <v>19.57518548103763</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>12.5742314874099</v>
+        <v>12.39817110865118</v>
       </c>
       <c r="D9">
-        <v>15.7901309744772</v>
+        <v>15.56477609716807</v>
       </c>
       <c r="E9">
-        <v>16.78843194634789</v>
+        <v>16.63978560500038</v>
       </c>
       <c r="F9">
-        <v>114.4087990120691</v>
+        <v>113.1508823849471</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.650531593289828</v>
       </c>
       <c r="H9">
-        <v>84.03057841775839</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>19.78930899032696</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>83.08845260932584</v>
+      </c>
+      <c r="J9">
+        <v>19.57518548103763</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>12.5742314874099</v>
+        <v>12.39817110865118</v>
       </c>
       <c r="D10">
-        <v>15.7901309744772</v>
+        <v>15.56477609716807</v>
       </c>
       <c r="E10">
-        <v>16.78843194634789</v>
+        <v>16.63978560500038</v>
       </c>
       <c r="F10">
-        <v>114.4087990120691</v>
+        <v>113.1508823849471</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.650531593289828</v>
       </c>
       <c r="H10">
-        <v>84.03057841775839</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>19.78930899032696</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>83.08845260932584</v>
+      </c>
+      <c r="J10">
+        <v>19.57518548103763</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>12.5742314874099</v>
+        <v>12.39817110865118</v>
       </c>
       <c r="D11">
-        <v>15.7901309744772</v>
+        <v>15.56477609716807</v>
       </c>
       <c r="E11">
-        <v>16.78843194634789</v>
+        <v>16.63978560500038</v>
       </c>
       <c r="F11">
-        <v>114.4087990120691</v>
+        <v>113.1508823849471</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.650531593289828</v>
       </c>
       <c r="H11">
-        <v>84.03057841775839</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>19.78930899032696</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>83.08845260932584</v>
+      </c>
+      <c r="J11">
+        <v>19.57518548103763</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>12.5742314874099</v>
+        <v>12.39817110865118</v>
       </c>
       <c r="D12">
-        <v>15.7901309744772</v>
+        <v>15.56477609716807</v>
       </c>
       <c r="E12">
-        <v>16.78843194634789</v>
+        <v>16.63978560500038</v>
       </c>
       <c r="F12">
-        <v>114.4087990120691</v>
+        <v>113.1508823849471</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.650531593289828</v>
       </c>
       <c r="H12">
-        <v>84.03057841775839</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>19.78930899032696</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>83.08845260932584</v>
+      </c>
+      <c r="J12">
+        <v>19.57518548103763</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>12.5742314874099</v>
+        <v>12.39817110865118</v>
       </c>
       <c r="D13">
-        <v>15.7901309744772</v>
+        <v>15.56477609716807</v>
       </c>
       <c r="E13">
-        <v>16.78843194634789</v>
+        <v>16.63978560500038</v>
       </c>
       <c r="F13">
-        <v>114.4087990120691</v>
+        <v>113.1508823849471</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.650531593289828</v>
       </c>
       <c r="H13">
-        <v>84.03057841775839</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>19.78930899032696</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>83.08845260932584</v>
+      </c>
+      <c r="J13">
+        <v>19.57518548103763</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>12.5742314874099</v>
+        <v>12.39817110865118</v>
       </c>
       <c r="D14">
-        <v>15.7901309744772</v>
+        <v>15.56477609716807</v>
       </c>
       <c r="E14">
-        <v>16.78843194634789</v>
+        <v>16.63978560500038</v>
       </c>
       <c r="F14">
-        <v>114.4087990120691</v>
+        <v>113.1508823849471</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.650531593289828</v>
       </c>
       <c r="H14">
-        <v>84.03057841775839</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>19.78930899032696</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>83.08845260932584</v>
+      </c>
+      <c r="J14">
+        <v>19.57518548103763</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>12.5742314874099</v>
+        <v>12.39817110865118</v>
       </c>
       <c r="D15">
-        <v>15.7901309744772</v>
+        <v>15.56477609716807</v>
       </c>
       <c r="E15">
-        <v>16.78843194634789</v>
+        <v>16.63978560500038</v>
       </c>
       <c r="F15">
-        <v>114.4087990120691</v>
+        <v>113.1508823849471</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.650531593289828</v>
       </c>
       <c r="H15">
-        <v>84.03057841775839</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>19.78930899032696</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>83.08845260932584</v>
+      </c>
+      <c r="J15">
+        <v>19.57518548103763</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>12.5742314874099</v>
+        <v>12.39817110865118</v>
       </c>
       <c r="D16">
-        <v>15.7901309744772</v>
+        <v>15.56477609716807</v>
       </c>
       <c r="E16">
-        <v>16.78843194634789</v>
+        <v>16.63978560500038</v>
       </c>
       <c r="F16">
-        <v>114.4087990120691</v>
+        <v>113.1508823849471</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.650531593289828</v>
       </c>
       <c r="H16">
-        <v>84.03057841775839</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>19.78930899032696</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>83.08845260932584</v>
+      </c>
+      <c r="J16">
+        <v>19.57518548103763</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>12.5742314874099</v>
+        <v>12.39817110865118</v>
       </c>
       <c r="D17">
-        <v>15.7901309744772</v>
+        <v>15.56477609716807</v>
       </c>
       <c r="E17">
-        <v>16.78843194634789</v>
+        <v>16.63978560500038</v>
       </c>
       <c r="F17">
-        <v>114.4087990120691</v>
+        <v>113.1508823849471</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.650531593289828</v>
       </c>
       <c r="H17">
-        <v>84.03057841775839</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>19.78930899032696</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>83.08845260932584</v>
+      </c>
+      <c r="J17">
+        <v>19.57518548103763</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>12.5742314874099</v>
+        <v>12.39817110865118</v>
       </c>
       <c r="D18">
-        <v>15.7901309744772</v>
+        <v>15.56477609716807</v>
       </c>
       <c r="E18">
-        <v>16.78843194634789</v>
+        <v>16.63978560500038</v>
       </c>
       <c r="F18">
-        <v>114.4087990120691</v>
+        <v>113.1508823849471</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.650531593289828</v>
       </c>
       <c r="H18">
-        <v>84.03057841775839</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>19.78930899032696</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>83.08845260932584</v>
+      </c>
+      <c r="J18">
+        <v>19.57518548103763</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>12.5742314874099</v>
+        <v>12.39817110865118</v>
       </c>
       <c r="D19">
-        <v>15.7901309744772</v>
+        <v>15.56477609716807</v>
       </c>
       <c r="E19">
-        <v>16.78843194634789</v>
+        <v>16.63978560500038</v>
       </c>
       <c r="F19">
-        <v>114.4087990120691</v>
+        <v>113.1508823849471</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.650531593289828</v>
       </c>
       <c r="H19">
-        <v>84.03057841775839</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>19.78930899032696</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>83.08845260932584</v>
+      </c>
+      <c r="J19">
+        <v>19.57518548103763</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>12.5742314874099</v>
+        <v>12.39817110865118</v>
       </c>
       <c r="D20">
-        <v>15.7901309744772</v>
+        <v>15.56477609716807</v>
       </c>
       <c r="E20">
-        <v>16.78843194634789</v>
+        <v>16.63978560500038</v>
       </c>
       <c r="F20">
-        <v>114.4087990120691</v>
+        <v>113.1508823849471</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.650531593289828</v>
       </c>
       <c r="H20">
-        <v>84.03057841775839</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>19.78930899032696</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>83.08845260932584</v>
+      </c>
+      <c r="J20">
+        <v>19.57518548103763</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>12.5742314874099</v>
+        <v>12.39817110865118</v>
       </c>
       <c r="D21">
-        <v>15.7901309744772</v>
+        <v>15.56477609716807</v>
       </c>
       <c r="E21">
-        <v>16.78843194634789</v>
+        <v>16.63978560500038</v>
       </c>
       <c r="F21">
-        <v>114.4087990120691</v>
+        <v>113.1508823849471</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.650531593289828</v>
       </c>
       <c r="H21">
-        <v>84.03057841775839</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>19.78930899032696</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>83.08845260932584</v>
+      </c>
+      <c r="J21">
+        <v>19.57518548103763</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>12.5742314874099</v>
+        <v>12.39817110865118</v>
       </c>
       <c r="D22">
-        <v>15.7901309744772</v>
+        <v>15.56477609716807</v>
       </c>
       <c r="E22">
-        <v>16.78843194634789</v>
+        <v>16.63978560500038</v>
       </c>
       <c r="F22">
-        <v>114.4087990120691</v>
+        <v>113.1508823849471</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.650531593289828</v>
       </c>
       <c r="H22">
-        <v>84.03057841775839</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>19.78930899032696</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>83.08845260932584</v>
+      </c>
+      <c r="J22">
+        <v>19.57518548103763</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>12.5742314874099</v>
+        <v>12.39817110865118</v>
       </c>
       <c r="D23">
-        <v>15.7901309744772</v>
+        <v>15.56477609716807</v>
       </c>
       <c r="E23">
-        <v>16.78843194634789</v>
+        <v>16.63978560500038</v>
       </c>
       <c r="F23">
-        <v>114.4087990120691</v>
+        <v>113.1508823849471</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.650531593289828</v>
       </c>
       <c r="H23">
-        <v>84.03057841775839</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>19.78930899032696</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>83.08845260932584</v>
+      </c>
+      <c r="J23">
+        <v>19.57518548103763</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>12.5742314874099</v>
+        <v>12.39817110865118</v>
       </c>
       <c r="D24">
-        <v>15.7901309744772</v>
+        <v>15.56477609716807</v>
       </c>
       <c r="E24">
-        <v>16.78843194634789</v>
+        <v>16.63978560500038</v>
       </c>
       <c r="F24">
-        <v>114.4087990120691</v>
+        <v>113.1508823849471</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.650531593289828</v>
       </c>
       <c r="H24">
-        <v>84.03057841775839</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>19.78930899032696</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>83.08845260932584</v>
+      </c>
+      <c r="J24">
+        <v>19.57518548103763</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>12.5742314874099</v>
+        <v>12.39817110865118</v>
       </c>
       <c r="D25">
-        <v>15.7901309744772</v>
+        <v>15.56477609716807</v>
       </c>
       <c r="E25">
-        <v>16.78843194634789</v>
+        <v>16.63978560500038</v>
       </c>
       <c r="F25">
-        <v>114.4087990120691</v>
+        <v>113.1508823849471</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.650531593289828</v>
       </c>
       <c r="H25">
-        <v>84.03057841775839</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>19.78930899032696</v>
-      </c>
-      <c r="K25">
+        <v>83.08845260932584</v>
+      </c>
+      <c r="J25">
+        <v>19.57518548103763</v>
+      </c>
+      <c r="L25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,772 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
-        <v>13.09472972568428</v>
+        <v>13.44153897891835</v>
       </c>
       <c r="D2">
-        <v>16.42477375418662</v>
+        <v>12.08057646059263</v>
       </c>
       <c r="E2">
-        <v>17.57823317052798</v>
+        <v>12.2932539036332</v>
       </c>
       <c r="F2">
-        <v>119.2760974181219</v>
+        <v>78.14445994561439</v>
       </c>
       <c r="G2">
-        <v>1.606717042923286</v>
+        <v>1.78286474108006</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>87.59498864745552</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>20.66192856618636</v>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>106.7596367725165</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>5.9602157947146</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
-        <v>11.30342550044554</v>
+        <v>12.224477451539</v>
       </c>
       <c r="D3">
-        <v>14.20859395666793</v>
+        <v>10.00228637417539</v>
       </c>
       <c r="E3">
-        <v>15.16820186907873</v>
+        <v>11.30332011876506</v>
       </c>
       <c r="F3">
-        <v>103.4575676892771</v>
+        <v>67.33324713280268</v>
       </c>
       <c r="G3">
-        <v>1.716508978441315</v>
+        <v>1.87526063897049</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>75.95218023441824</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>17.86728874814128</v>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>95.98768799263925</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>5.757858973469684</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
-        <v>10.41428450252694</v>
+        <v>11.60215820728375</v>
       </c>
       <c r="D4">
-        <v>13.10344571092467</v>
+        <v>9.000320898911379</v>
       </c>
       <c r="E4">
-        <v>13.9751187037665</v>
+        <v>10.80949858819637</v>
       </c>
       <c r="F4">
-        <v>95.544040479553</v>
+        <v>61.94981667522099</v>
       </c>
       <c r="G4">
-        <v>1.76749188049569</v>
+        <v>1.922350585533546</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>70.12085171009365</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>16.47976548420138</v>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>89.92665754303928</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>5.673378990894226</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
-        <v>10.07376373571346</v>
+        <v>11.36671574020745</v>
       </c>
       <c r="D5">
-        <v>12.67937942511863</v>
+        <v>8.642086950176244</v>
       </c>
       <c r="E5">
-        <v>13.51853211172294</v>
+        <v>10.62528000368246</v>
       </c>
       <c r="F5">
-        <v>92.50734350192864</v>
+        <v>59.94164048010609</v>
       </c>
       <c r="G5">
-        <v>1.786401009802179</v>
+        <v>1.940235370984526</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>67.88157846459899</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>15.94817973919851</v>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>87.5136485917162</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5.645189766140211</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
-        <v>10.01812115249997</v>
+        <v>11.32849833141857</v>
       </c>
       <c r="D6">
-        <v>12.61004266418575</v>
+        <v>8.605062314120762</v>
       </c>
       <c r="E6">
-        <v>13.44393682441319</v>
+        <v>10.59552508364328</v>
       </c>
       <c r="F6">
-        <v>92.01092287250522</v>
+        <v>59.61725709894258</v>
       </c>
       <c r="G6">
-        <v>1.78945852230021</v>
+        <v>1.943145075027636</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>67.51542086643886</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>15.86130259742244</v>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>87.11502841954758</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5.640821845417703</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
-        <v>10.40962427763445</v>
+        <v>11.59892003340323</v>
       </c>
       <c r="D7">
-        <v>13.0976451407113</v>
+        <v>8.995233021088701</v>
       </c>
       <c r="E7">
-        <v>13.96886902606082</v>
+        <v>10.80695460242185</v>
       </c>
       <c r="F7">
-        <v>95.50249876807872</v>
+        <v>61.92208573119671</v>
       </c>
       <c r="G7">
-        <v>1.767752960856653</v>
+        <v>1.922596162957937</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>70.09022514914987</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>16.47249131973119</v>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>89.89395104793297</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>5.67297664531597</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
-        <v>12.39817110865118</v>
+        <v>12.98335505256625</v>
       </c>
       <c r="D8">
-        <v>15.56477609716807</v>
+        <v>11.28144435251392</v>
       </c>
       <c r="E8">
-        <v>16.63978560500038</v>
+        <v>11.91721823464968</v>
       </c>
       <c r="F8">
-        <v>113.1508823849471</v>
+        <v>74.03276224003841</v>
       </c>
       <c r="G8">
-        <v>1.650531593289828</v>
+        <v>1.817781014042082</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>83.08845260932584</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>19.57518548103763</v>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>102.8532927630299</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>5.878660443521324</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
-        <v>12.39817110865118</v>
+        <v>12.98335505256625</v>
       </c>
       <c r="D9">
-        <v>15.56477609716807</v>
+        <v>11.28144435251392</v>
       </c>
       <c r="E9">
-        <v>16.63978560500038</v>
+        <v>11.91721823464968</v>
       </c>
       <c r="F9">
-        <v>113.1508823849471</v>
+        <v>74.03276224003841</v>
       </c>
       <c r="G9">
-        <v>1.650531593289828</v>
+        <v>1.817781014042082</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>83.08845260932584</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>19.57518548103763</v>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>102.8532927630299</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>5.878660443521324</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
-        <v>12.39817110865118</v>
+        <v>12.98335505256625</v>
       </c>
       <c r="D10">
-        <v>15.56477609716807</v>
+        <v>11.28144435251392</v>
       </c>
       <c r="E10">
-        <v>16.63978560500038</v>
+        <v>11.91721823464968</v>
       </c>
       <c r="F10">
-        <v>113.1508823849471</v>
+        <v>74.03276224003841</v>
       </c>
       <c r="G10">
-        <v>1.650531593289828</v>
+        <v>1.817781014042082</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>83.08845260932584</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>19.57518548103763</v>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>102.8532927630299</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>5.878660443521324</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
-        <v>12.39817110865118</v>
+        <v>12.98335505256625</v>
       </c>
       <c r="D11">
-        <v>15.56477609716807</v>
+        <v>11.28144435251392</v>
       </c>
       <c r="E11">
-        <v>16.63978560500038</v>
+        <v>11.91721823464968</v>
       </c>
       <c r="F11">
-        <v>113.1508823849471</v>
+        <v>74.03276224003841</v>
       </c>
       <c r="G11">
-        <v>1.650531593289828</v>
+        <v>1.817781014042082</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>83.08845260932584</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>19.57518548103763</v>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>102.8532927630299</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5.878660443521324</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
-        <v>12.39817110865118</v>
+        <v>12.98335505256625</v>
       </c>
       <c r="D12">
-        <v>15.56477609716807</v>
+        <v>11.28144435251392</v>
       </c>
       <c r="E12">
-        <v>16.63978560500038</v>
+        <v>11.91721823464968</v>
       </c>
       <c r="F12">
-        <v>113.1508823849471</v>
+        <v>74.03276224003841</v>
       </c>
       <c r="G12">
-        <v>1.650531593289828</v>
+        <v>1.817781014042082</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>83.08845260932584</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>19.57518548103763</v>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>102.8532927630299</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5.878660443521324</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
-        <v>12.39817110865118</v>
+        <v>12.98335505256625</v>
       </c>
       <c r="D13">
-        <v>15.56477609716807</v>
+        <v>11.28144435251392</v>
       </c>
       <c r="E13">
-        <v>16.63978560500038</v>
+        <v>11.91721823464968</v>
       </c>
       <c r="F13">
-        <v>113.1508823849471</v>
+        <v>74.03276224003841</v>
       </c>
       <c r="G13">
-        <v>1.650531593289828</v>
+        <v>1.817781014042082</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>83.08845260932584</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>19.57518548103763</v>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>102.8532927630299</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5.878660443521324</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
-        <v>12.39817110865118</v>
+        <v>12.98335505256625</v>
       </c>
       <c r="D14">
-        <v>15.56477609716807</v>
+        <v>11.28144435251392</v>
       </c>
       <c r="E14">
-        <v>16.63978560500038</v>
+        <v>11.91721823464968</v>
       </c>
       <c r="F14">
-        <v>113.1508823849471</v>
+        <v>74.03276224003841</v>
       </c>
       <c r="G14">
-        <v>1.650531593289828</v>
+        <v>1.817781014042082</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>83.08845260932584</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>19.57518548103763</v>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>102.8532927630299</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5.878660443521324</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
-        <v>12.39817110865118</v>
+        <v>12.98335505256625</v>
       </c>
       <c r="D15">
-        <v>15.56477609716807</v>
+        <v>11.28144435251392</v>
       </c>
       <c r="E15">
-        <v>16.63978560500038</v>
+        <v>11.91721823464968</v>
       </c>
       <c r="F15">
-        <v>113.1508823849471</v>
+        <v>74.03276224003841</v>
       </c>
       <c r="G15">
-        <v>1.650531593289828</v>
+        <v>1.817781014042082</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>83.08845260932584</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>19.57518548103763</v>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>102.8532927630299</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5.878660443521324</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
-        <v>12.39817110865118</v>
+        <v>12.98335505256625</v>
       </c>
       <c r="D16">
-        <v>15.56477609716807</v>
+        <v>11.28144435251392</v>
       </c>
       <c r="E16">
-        <v>16.63978560500038</v>
+        <v>11.91721823464968</v>
       </c>
       <c r="F16">
-        <v>113.1508823849471</v>
+        <v>74.03276224003841</v>
       </c>
       <c r="G16">
-        <v>1.650531593289828</v>
+        <v>1.817781014042082</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>83.08845260932584</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>19.57518548103763</v>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>102.8532927630299</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>5.878660443521324</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
-        <v>12.39817110865118</v>
+        <v>12.98335505256625</v>
       </c>
       <c r="D17">
-        <v>15.56477609716807</v>
+        <v>11.28144435251392</v>
       </c>
       <c r="E17">
-        <v>16.63978560500038</v>
+        <v>11.91721823464968</v>
       </c>
       <c r="F17">
-        <v>113.1508823849471</v>
+        <v>74.03276224003841</v>
       </c>
       <c r="G17">
-        <v>1.650531593289828</v>
+        <v>1.817781014042082</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>83.08845260932584</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>19.57518548103763</v>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>102.8532927630299</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>5.878660443521324</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
-        <v>12.39817110865118</v>
+        <v>12.98335505256625</v>
       </c>
       <c r="D18">
-        <v>15.56477609716807</v>
+        <v>11.28144435251392</v>
       </c>
       <c r="E18">
-        <v>16.63978560500038</v>
+        <v>11.91721823464968</v>
       </c>
       <c r="F18">
-        <v>113.1508823849471</v>
+        <v>74.03276224003841</v>
       </c>
       <c r="G18">
-        <v>1.650531593289828</v>
+        <v>1.817781014042082</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>83.08845260932584</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>19.57518548103763</v>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>102.8532927630299</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>5.878660443521324</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
-        <v>12.39817110865118</v>
+        <v>12.98335505256625</v>
       </c>
       <c r="D19">
-        <v>15.56477609716807</v>
+        <v>11.28144435251392</v>
       </c>
       <c r="E19">
-        <v>16.63978560500038</v>
+        <v>11.91721823464968</v>
       </c>
       <c r="F19">
-        <v>113.1508823849471</v>
+        <v>74.03276224003841</v>
       </c>
       <c r="G19">
-        <v>1.650531593289828</v>
+        <v>1.817781014042082</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>83.08845260932584</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>19.57518548103763</v>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>102.8532927630299</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>5.878660443521324</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
-        <v>12.39817110865118</v>
+        <v>12.98335505256625</v>
       </c>
       <c r="D20">
-        <v>15.56477609716807</v>
+        <v>11.28144435251392</v>
       </c>
       <c r="E20">
-        <v>16.63978560500038</v>
+        <v>11.91721823464968</v>
       </c>
       <c r="F20">
-        <v>113.1508823849471</v>
+        <v>74.03276224003841</v>
       </c>
       <c r="G20">
-        <v>1.650531593289828</v>
+        <v>1.817781014042082</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>83.08845260932584</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>19.57518548103763</v>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>102.8532927630299</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>5.878660443521324</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
-        <v>12.39817110865118</v>
+        <v>12.98335505256625</v>
       </c>
       <c r="D21">
-        <v>15.56477609716807</v>
+        <v>11.28144435251392</v>
       </c>
       <c r="E21">
-        <v>16.63978560500038</v>
+        <v>11.91721823464968</v>
       </c>
       <c r="F21">
-        <v>113.1508823849471</v>
+        <v>74.03276224003841</v>
       </c>
       <c r="G21">
-        <v>1.650531593289828</v>
+        <v>1.817781014042082</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>83.08845260932584</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>19.57518548103763</v>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>102.8532927630299</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>5.878660443521324</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
-        <v>12.39817110865118</v>
+        <v>12.98335505256625</v>
       </c>
       <c r="D22">
-        <v>15.56477609716807</v>
+        <v>11.28144435251392</v>
       </c>
       <c r="E22">
-        <v>16.63978560500038</v>
+        <v>11.91721823464968</v>
       </c>
       <c r="F22">
-        <v>113.1508823849471</v>
+        <v>74.03276224003841</v>
       </c>
       <c r="G22">
-        <v>1.650531593289828</v>
+        <v>1.817781014042082</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>83.08845260932584</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>19.57518548103763</v>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>102.8532927630299</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>5.878660443521324</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
-        <v>12.39817110865118</v>
+        <v>12.98335505256625</v>
       </c>
       <c r="D23">
-        <v>15.56477609716807</v>
+        <v>11.28144435251392</v>
       </c>
       <c r="E23">
-        <v>16.63978560500038</v>
+        <v>11.91721823464968</v>
       </c>
       <c r="F23">
-        <v>113.1508823849471</v>
+        <v>74.03276224003841</v>
       </c>
       <c r="G23">
-        <v>1.650531593289828</v>
+        <v>1.817781014042082</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>83.08845260932584</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>19.57518548103763</v>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>102.8532927630299</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>5.878660443521324</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
-        <v>12.39817110865118</v>
+        <v>12.98335505256625</v>
       </c>
       <c r="D24">
-        <v>15.56477609716807</v>
+        <v>11.28144435251392</v>
       </c>
       <c r="E24">
-        <v>16.63978560500038</v>
+        <v>11.91721823464968</v>
       </c>
       <c r="F24">
-        <v>113.1508823849471</v>
+        <v>74.03276224003841</v>
       </c>
       <c r="G24">
-        <v>1.650531593289828</v>
+        <v>1.817781014042082</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>83.08845260932584</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>19.57518548103763</v>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>102.8532927630299</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>5.878660443521324</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
-        <v>12.39817110865118</v>
+        <v>12.98335505256625</v>
       </c>
       <c r="D25">
-        <v>15.56477609716807</v>
+        <v>11.28144435251392</v>
       </c>
       <c r="E25">
-        <v>16.63978560500038</v>
+        <v>11.91721823464968</v>
       </c>
       <c r="F25">
-        <v>113.1508823849471</v>
+        <v>74.03276224003841</v>
       </c>
       <c r="G25">
-        <v>1.650531593289828</v>
+        <v>1.817781014042082</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>83.08845260932584</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>19.57518548103763</v>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>102.8532927630299</v>
       </c>
       <c r="L25">
+        <v>5.878660443521324</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.44153897891835</v>
+        <v>9.118732071268919</v>
       </c>
       <c r="D2">
-        <v>12.08057646059263</v>
+        <v>3.798212144381427</v>
       </c>
       <c r="E2">
-        <v>12.2932539036332</v>
+        <v>7.620196913095318</v>
       </c>
       <c r="F2">
-        <v>78.14445994561439</v>
+        <v>33.14009063010972</v>
       </c>
       <c r="G2">
-        <v>1.78286474108006</v>
+        <v>44.29929759034248</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>13.87887281606792</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.24145513030813</v>
       </c>
       <c r="K2">
-        <v>106.7596367725165</v>
+        <v>20.21402105399492</v>
       </c>
       <c r="L2">
-        <v>5.9602157947146</v>
+        <v>5.135637128461693</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>16.41462494096634</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>13.5492139882124</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>12.224477451539</v>
+        <v>8.848443212448737</v>
       </c>
       <c r="D3">
-        <v>10.00228637417539</v>
+        <v>3.7106124346203</v>
       </c>
       <c r="E3">
-        <v>11.30332011876506</v>
+        <v>7.59698109896824</v>
       </c>
       <c r="F3">
-        <v>67.33324713280268</v>
+        <v>32.55408966710731</v>
       </c>
       <c r="G3">
-        <v>1.87526063897049</v>
+        <v>43.26293266216599</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>13.81131694740408</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.292754639062418</v>
       </c>
       <c r="K3">
-        <v>95.98768799263925</v>
+        <v>19.038363545705</v>
       </c>
       <c r="L3">
-        <v>5.757858973469684</v>
+        <v>5.161157032985332</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>15.73484065122658</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>13.81005510125447</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11.60215820728375</v>
+        <v>8.684441124750872</v>
       </c>
       <c r="D4">
-        <v>9.000320898911379</v>
+        <v>3.656668726284541</v>
       </c>
       <c r="E4">
-        <v>10.80949858819637</v>
+        <v>7.58588289536193</v>
       </c>
       <c r="F4">
-        <v>61.94981667522099</v>
+        <v>32.22100950188244</v>
       </c>
       <c r="G4">
-        <v>1.922350585533546</v>
+        <v>42.66419288970232</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>13.78105618187647</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.326183588591416</v>
       </c>
       <c r="K4">
-        <v>89.92665754303928</v>
+        <v>18.28904656871531</v>
       </c>
       <c r="L4">
-        <v>5.673378990894226</v>
+        <v>5.17747321889812</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>15.31110650846693</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>13.97282164224412</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11.36671574020745</v>
+        <v>8.618173045822184</v>
       </c>
       <c r="D5">
-        <v>8.642086950176244</v>
+        <v>3.634668699416156</v>
       </c>
       <c r="E5">
-        <v>10.62528000368246</v>
+        <v>7.582138008929739</v>
       </c>
       <c r="F5">
-        <v>59.94164048010609</v>
+        <v>32.09189161663359</v>
       </c>
       <c r="G5">
-        <v>1.940235370984526</v>
+        <v>42.42960513172601</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>13.77143421806036</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.340286401296545</v>
       </c>
       <c r="K5">
-        <v>87.5136485917162</v>
+        <v>17.97702929458623</v>
       </c>
       <c r="L5">
-        <v>5.645189766140211</v>
+        <v>5.184287383353436</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>15.13706194619316</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>14.03985385965273</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11.32849833141857</v>
+        <v>8.607205529595243</v>
       </c>
       <c r="D6">
-        <v>8.605062314120762</v>
+        <v>3.631015219389131</v>
       </c>
       <c r="E6">
-        <v>10.59552508364328</v>
+        <v>7.581562678675394</v>
       </c>
       <c r="F6">
-        <v>59.61725709894258</v>
+        <v>32.07084781204744</v>
       </c>
       <c r="G6">
-        <v>1.943145075027636</v>
+        <v>42.39121800009696</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>13.76999688141031</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.342657024740863</v>
       </c>
       <c r="K6">
-        <v>87.11502841954758</v>
+        <v>17.92482482488682</v>
       </c>
       <c r="L6">
-        <v>5.640821845417703</v>
+        <v>5.185428918982248</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>15.10808644636441</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>14.05102833207217</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>11.59892003340323</v>
+        <v>8.683545028202252</v>
       </c>
       <c r="D7">
-        <v>8.995233021088701</v>
+        <v>3.656372067241032</v>
       </c>
       <c r="E7">
-        <v>10.80695460242185</v>
+        <v>7.585829262641859</v>
       </c>
       <c r="F7">
-        <v>61.92208573119671</v>
+        <v>32.21924154044101</v>
       </c>
       <c r="G7">
-        <v>1.922596162957937</v>
+        <v>42.66099116680183</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>13.78091559341774</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.326371846106841</v>
       </c>
       <c r="K7">
-        <v>89.89395104793297</v>
+        <v>18.28486521477962</v>
       </c>
       <c r="L7">
-        <v>5.67297664531597</v>
+        <v>5.177564444996717</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>15.30876450729733</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>13.97372275295371</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>12.98335505256625</v>
+        <v>9.025172410222741</v>
       </c>
       <c r="D8">
-        <v>11.28144435251392</v>
+        <v>3.768053152288987</v>
       </c>
       <c r="E8">
-        <v>11.91721823464968</v>
+        <v>7.611527350899296</v>
       </c>
       <c r="F8">
-        <v>74.03276224003841</v>
+        <v>32.93243127711293</v>
       </c>
       <c r="G8">
-        <v>1.817781014042082</v>
+        <v>43.93413389736934</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>13.85318408438269</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.258739094879048</v>
       </c>
       <c r="K8">
-        <v>102.8532927630299</v>
+        <v>19.81447818380506</v>
       </c>
       <c r="L8">
-        <v>5.878660443521324</v>
+        <v>5.144303692372207</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>16.18167805276746</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>13.63864004796485</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>12.98335505256625</v>
+        <v>9.707725564820963</v>
       </c>
       <c r="D9">
-        <v>11.28144435251392</v>
+        <v>3.984924385047966</v>
       </c>
       <c r="E9">
-        <v>11.91721823464968</v>
+        <v>7.687692380006046</v>
       </c>
       <c r="F9">
-        <v>74.03276224003841</v>
+        <v>34.54719239251748</v>
       </c>
       <c r="G9">
-        <v>1.817781014042082</v>
+        <v>46.73045380976152</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>14.08890117827652</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.141701130147641</v>
       </c>
       <c r="K9">
-        <v>102.8532927630299</v>
+        <v>22.58868522697124</v>
       </c>
       <c r="L9">
-        <v>5.878660443521324</v>
+        <v>5.084091685160563</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>17.83479136066485</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>12.99992669648677</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>12.98335505256625</v>
+        <v>10.21353421267422</v>
       </c>
       <c r="D10">
-        <v>11.28144435251392</v>
+        <v>4.141901352238746</v>
       </c>
       <c r="E10">
-        <v>11.91721823464968</v>
+        <v>7.760387937971985</v>
       </c>
       <c r="F10">
-        <v>74.03276224003841</v>
+        <v>35.87064104988106</v>
       </c>
       <c r="G10">
-        <v>1.817781014042082</v>
+        <v>48.96944718424378</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>14.32623388742919</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.06564529939237</v>
       </c>
       <c r="K10">
-        <v>102.8532927630299</v>
+        <v>24.57752940990154</v>
       </c>
       <c r="L10">
-        <v>5.878660443521324</v>
+        <v>5.042732143597009</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>19.00466613637266</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>12.53835142470452</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.98335505256625</v>
+        <v>10.44404772560015</v>
       </c>
       <c r="D11">
-        <v>11.28144435251392</v>
+        <v>4.212620781917734</v>
       </c>
       <c r="E11">
-        <v>11.91721823464968</v>
+        <v>7.79732489736694</v>
       </c>
       <c r="F11">
-        <v>74.03276224003841</v>
+        <v>36.5036166038453</v>
       </c>
       <c r="G11">
-        <v>1.817781014042082</v>
+        <v>50.0286900130307</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>14.44961912365148</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.033315394973885</v>
       </c>
       <c r="K11">
-        <v>102.8532927630299</v>
+        <v>25.49693346749364</v>
       </c>
       <c r="L11">
-        <v>5.878660443521324</v>
+        <v>5.024499718463198</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>19.52591548227401</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>12.32917214911626</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.98335505256625</v>
+        <v>10.53136611436682</v>
       </c>
       <c r="D12">
-        <v>11.28144435251392</v>
+        <v>4.23928905814476</v>
       </c>
       <c r="E12">
-        <v>11.91721823464968</v>
+        <v>7.811888060946502</v>
       </c>
       <c r="F12">
-        <v>74.03276224003841</v>
+        <v>36.74785861889355</v>
       </c>
       <c r="G12">
-        <v>1.817781014042082</v>
+        <v>50.43573139818977</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>14.49868395987538</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.021410262998533</v>
       </c>
       <c r="K12">
-        <v>102.8532927630299</v>
+        <v>25.8388891360678</v>
       </c>
       <c r="L12">
-        <v>5.878660443521324</v>
+        <v>5.017675604060832</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>19.72166083210148</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>12.24999601459586</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.98335505256625</v>
+        <v>10.51255968758729</v>
       </c>
       <c r="D13">
-        <v>11.28144435251392</v>
+        <v>4.23355070253716</v>
       </c>
       <c r="E13">
-        <v>11.91721823464968</v>
+        <v>7.80872567978725</v>
       </c>
       <c r="F13">
-        <v>74.03276224003841</v>
+        <v>36.69505267765346</v>
       </c>
       <c r="G13">
-        <v>1.817781014042082</v>
+        <v>50.347802421217</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>14.48801081825201</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.023959039215065</v>
       </c>
       <c r="K13">
-        <v>102.8532927630299</v>
+        <v>25.76551622272489</v>
       </c>
       <c r="L13">
-        <v>5.878660443521324</v>
+        <v>5.019141796689664</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>19.67957731313566</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>12.26704776734634</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.98335505256625</v>
+        <v>10.4512310468063</v>
       </c>
       <c r="D14">
-        <v>11.28144435251392</v>
+        <v>4.214817096224587</v>
       </c>
       <c r="E14">
-        <v>11.91721823464968</v>
+        <v>7.798511357215536</v>
       </c>
       <c r="F14">
-        <v>74.03276224003841</v>
+        <v>36.52361875899327</v>
       </c>
       <c r="G14">
-        <v>1.817781014042082</v>
+        <v>50.06205815049137</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>14.45360806728583</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.032329118332703</v>
       </c>
       <c r="K14">
-        <v>102.8532927630299</v>
+        <v>25.5251897795725</v>
       </c>
       <c r="L14">
-        <v>5.878660443521324</v>
+        <v>5.023936710593995</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>19.54205273728739</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>12.32265804700604</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.98335505256625</v>
+        <v>10.41366835549453</v>
       </c>
       <c r="D15">
-        <v>11.28144435251392</v>
+        <v>4.203327359161086</v>
       </c>
       <c r="E15">
-        <v>11.91721823464968</v>
+        <v>7.79233040199103</v>
       </c>
       <c r="F15">
-        <v>74.03276224003841</v>
+        <v>36.41920606892729</v>
       </c>
       <c r="G15">
-        <v>1.817781014042082</v>
+        <v>49.88780658811201</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>14.43284406143592</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.03750034782782</v>
       </c>
       <c r="K15">
-        <v>102.8532927630299</v>
+        <v>25.37717975041144</v>
       </c>
       <c r="L15">
-        <v>5.878660443521324</v>
+        <v>5.026884054664036</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>19.45759978608509</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>12.35672310943405</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.98335505256625</v>
+        <v>10.19847502197402</v>
       </c>
       <c r="D16">
-        <v>11.28144435251392</v>
+        <v>4.13726466580284</v>
       </c>
       <c r="E16">
-        <v>11.91721823464968</v>
+        <v>7.758053510417044</v>
       </c>
       <c r="F16">
-        <v>74.03276224003841</v>
+        <v>35.82990520827915</v>
       </c>
       <c r="G16">
-        <v>1.817781014042082</v>
+        <v>48.90104791796091</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>14.31849121199548</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.06780471281483</v>
       </c>
       <c r="K16">
-        <v>102.8532927630299</v>
+        <v>24.51656785118232</v>
       </c>
       <c r="L16">
-        <v>5.878660443521324</v>
+        <v>5.043935088297788</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>18.97037477491512</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>12.55203120569182</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.98335505256625</v>
+        <v>10.06654162371665</v>
       </c>
       <c r="D17">
-        <v>11.28144435251392</v>
+        <v>4.096550955861467</v>
       </c>
       <c r="E17">
-        <v>11.91721823464968</v>
+        <v>7.73803002858075</v>
       </c>
       <c r="F17">
-        <v>74.03276224003841</v>
+        <v>35.47637683966067</v>
       </c>
       <c r="G17">
-        <v>1.817781014042082</v>
+        <v>48.30617229942348</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>14.25237645359729</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.086984019316944</v>
       </c>
       <c r="K17">
-        <v>102.8532927630299</v>
+        <v>23.97740023028162</v>
       </c>
       <c r="L17">
-        <v>5.878660443521324</v>
+        <v>5.054541977019572</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>18.66862015400335</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>12.67199609653987</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.98335505256625</v>
+        <v>9.990697683607815</v>
       </c>
       <c r="D18">
-        <v>11.28144435251392</v>
+        <v>4.073069130681888</v>
       </c>
       <c r="E18">
-        <v>11.91721823464968</v>
+        <v>7.726875824164489</v>
       </c>
       <c r="F18">
-        <v>74.03276224003841</v>
+        <v>35.27594143905956</v>
       </c>
       <c r="G18">
-        <v>1.817781014042082</v>
+        <v>47.9678413099638</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>14.21579296734609</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.098228188116038</v>
       </c>
       <c r="K18">
-        <v>102.8532927630299</v>
+        <v>23.66311906292358</v>
       </c>
       <c r="L18">
-        <v>5.878660443521324</v>
+        <v>5.060697812807539</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>18.49403210148668</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>12.74107656419312</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.98335505256625</v>
+        <v>9.965026377747353</v>
       </c>
       <c r="D19">
-        <v>11.28144435251392</v>
+        <v>4.065107950446014</v>
       </c>
       <c r="E19">
-        <v>11.91721823464968</v>
+        <v>7.723160923139748</v>
       </c>
       <c r="F19">
-        <v>74.03276224003841</v>
+        <v>35.20857356833796</v>
       </c>
       <c r="G19">
-        <v>1.817781014042082</v>
+        <v>47.85394367555101</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>14.20365070556147</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.1020714872682</v>
       </c>
       <c r="K19">
-        <v>102.8532927630299</v>
+        <v>23.56610965532045</v>
       </c>
       <c r="L19">
-        <v>5.878660443521324</v>
+        <v>5.062791631209188</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>18.43474579028211</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>12.76448200791729</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.98335505256625</v>
+        <v>10.08058222038639</v>
       </c>
       <c r="D20">
-        <v>11.28144435251392</v>
+        <v>4.100891760318663</v>
       </c>
       <c r="E20">
-        <v>11.91721823464968</v>
+        <v>7.740123876909781</v>
       </c>
       <c r="F20">
-        <v>74.03276224003841</v>
+        <v>35.51370923510741</v>
       </c>
       <c r="G20">
-        <v>1.817781014042082</v>
+        <v>48.36910146132993</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>14.25926414917691</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.08492025437455</v>
       </c>
       <c r="K20">
-        <v>102.8532927630299</v>
+        <v>24.03522571025852</v>
       </c>
       <c r="L20">
-        <v>5.878660443521324</v>
+        <v>5.053407185184466</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>18.70084930216985</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>12.65921791166716</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.98335505256625</v>
+        <v>10.46924419823226</v>
       </c>
       <c r="D21">
-        <v>11.28144435251392</v>
+        <v>4.220322726259616</v>
       </c>
       <c r="E21">
-        <v>11.91721823464968</v>
+        <v>7.801495756751178</v>
       </c>
       <c r="F21">
-        <v>74.03276224003841</v>
+        <v>36.57384874312093</v>
       </c>
       <c r="G21">
-        <v>1.817781014042082</v>
+        <v>50.14582645582678</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>14.46364843582917</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.029861365769975</v>
       </c>
       <c r="K21">
-        <v>102.8532927630299</v>
+        <v>25.5959465714663</v>
       </c>
       <c r="L21">
-        <v>5.878660443521324</v>
+        <v>5.022526184118614</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>19.58249196363523</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>12.30632366101203</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.98335505256625</v>
+        <v>10.72341330467457</v>
       </c>
       <c r="D22">
-        <v>11.28144435251392</v>
+        <v>4.297723177980798</v>
       </c>
       <c r="E22">
-        <v>11.91721823464968</v>
+        <v>7.844972948390532</v>
       </c>
       <c r="F22">
-        <v>74.03276224003841</v>
+        <v>37.29328058431409</v>
       </c>
       <c r="G22">
-        <v>1.817781014042082</v>
+        <v>51.34164507575208</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>14.61093389635591</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.995850788542835</v>
       </c>
       <c r="K22">
-        <v>102.8532927630299</v>
+        <v>26.5798932173894</v>
       </c>
       <c r="L22">
-        <v>5.878660443521324</v>
+        <v>5.002808732202626</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>20.14912295257851</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>12.07585163204478</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.98335505256625</v>
+        <v>10.58775186796472</v>
       </c>
       <c r="D23">
-        <v>11.28144435251392</v>
+        <v>4.256476412050373</v>
       </c>
       <c r="E23">
-        <v>11.91721823464968</v>
+        <v>7.821453390591334</v>
       </c>
       <c r="F23">
-        <v>74.03276224003841</v>
+        <v>36.9068371682166</v>
       </c>
       <c r="G23">
-        <v>1.817781014042082</v>
+        <v>50.70020991456779</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>14.53102861478867</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.013818145936497</v>
       </c>
       <c r="K23">
-        <v>102.8532927630299</v>
+        <v>26.05799053233942</v>
       </c>
       <c r="L23">
-        <v>5.878660443521324</v>
+        <v>5.013291017772007</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>19.84759250485263</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>12.1988718642825</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.98335505256625</v>
+        <v>10.07423444432561</v>
       </c>
       <c r="D24">
-        <v>11.28144435251392</v>
+        <v>4.098929515168352</v>
       </c>
       <c r="E24">
-        <v>11.91721823464968</v>
+        <v>7.739176135836943</v>
       </c>
       <c r="F24">
-        <v>74.03276224003841</v>
+        <v>35.49682250525943</v>
       </c>
       <c r="G24">
-        <v>1.817781014042082</v>
+        <v>48.34063975812629</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>14.25614578727257</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.085852605162582</v>
       </c>
       <c r="K24">
-        <v>102.8532927630299</v>
+        <v>24.00909623557222</v>
       </c>
       <c r="L24">
-        <v>5.878660443521324</v>
+        <v>5.053920044286924</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>18.6862819415217</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>12.66499457729668</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12.98335505256625</v>
+        <v>9.522101873472687</v>
       </c>
       <c r="D25">
-        <v>11.28144435251392</v>
+        <v>3.926600013912361</v>
       </c>
       <c r="E25">
-        <v>11.91721823464968</v>
+        <v>7.664224215706573</v>
       </c>
       <c r="F25">
-        <v>74.03276224003841</v>
+        <v>34.08664900634227</v>
       </c>
       <c r="G25">
-        <v>1.817781014042082</v>
+        <v>45.94170372544562</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>14.01436480431326</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.171653336387983</v>
       </c>
       <c r="K25">
-        <v>102.8532927630299</v>
+        <v>21.86314279287658</v>
       </c>
       <c r="L25">
-        <v>5.878660443521324</v>
+        <v>5.099861729619771</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>17.394897468306</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>13.17109305034951</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.118732071268919</v>
+        <v>12.87978613001893</v>
       </c>
       <c r="D2">
-        <v>3.798212144381427</v>
+        <v>6.434138702286823</v>
       </c>
       <c r="E2">
-        <v>7.620196913095318</v>
+        <v>13.10313218565756</v>
       </c>
       <c r="F2">
-        <v>33.14009063010972</v>
+        <v>47.80769781778141</v>
       </c>
       <c r="G2">
-        <v>44.29929759034248</v>
+        <v>59.65256156450099</v>
       </c>
       <c r="H2">
-        <v>13.87887281606792</v>
+        <v>21.98962784616776</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.24145513030813</v>
+        <v>11.03807818784017</v>
       </c>
       <c r="K2">
-        <v>20.21402105399492</v>
+        <v>20.99946033114414</v>
       </c>
       <c r="L2">
-        <v>5.135637128461693</v>
+        <v>9.132326649967723</v>
       </c>
       <c r="M2">
-        <v>16.41462494096634</v>
+        <v>21.91115033868612</v>
       </c>
       <c r="N2">
-        <v>13.5492139882124</v>
+        <v>20.94309213598616</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.848443212448737</v>
+        <v>12.86750037049279</v>
       </c>
       <c r="D3">
-        <v>3.7106124346203</v>
+        <v>6.428228427607915</v>
       </c>
       <c r="E3">
-        <v>7.59698109896824</v>
+        <v>13.12511409481182</v>
       </c>
       <c r="F3">
-        <v>32.55408966710731</v>
+        <v>47.87017924896716</v>
       </c>
       <c r="G3">
-        <v>43.26293266216599</v>
+        <v>59.69082686155478</v>
       </c>
       <c r="H3">
-        <v>13.81131694740408</v>
+        <v>22.04440399290321</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.292754639062418</v>
+        <v>11.06374489582541</v>
       </c>
       <c r="K3">
-        <v>19.038363545705</v>
+        <v>20.75438594987395</v>
       </c>
       <c r="L3">
-        <v>5.161157032985332</v>
+        <v>9.143725407623759</v>
       </c>
       <c r="M3">
-        <v>15.73484065122658</v>
+        <v>21.83293413134121</v>
       </c>
       <c r="N3">
-        <v>13.81005510125447</v>
+        <v>21.0160937192585</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.684441124750872</v>
+        <v>12.86243887225138</v>
       </c>
       <c r="D4">
-        <v>3.656668726284541</v>
+        <v>6.425087244499639</v>
       </c>
       <c r="E4">
-        <v>7.58588289536193</v>
+        <v>13.14009047314802</v>
       </c>
       <c r="F4">
-        <v>32.22100950188244</v>
+        <v>47.91957307859553</v>
       </c>
       <c r="G4">
-        <v>42.66419288970232</v>
+        <v>59.73056235716435</v>
       </c>
       <c r="H4">
-        <v>13.78105618187647</v>
+        <v>22.08211580889342</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.326183588591416</v>
+        <v>11.08050945842339</v>
       </c>
       <c r="K4">
-        <v>18.28904656871531</v>
+        <v>20.60685778962484</v>
       </c>
       <c r="L4">
-        <v>5.17747321889812</v>
+        <v>9.151129875271762</v>
       </c>
       <c r="M4">
-        <v>15.31110650846693</v>
+        <v>21.78861388009111</v>
       </c>
       <c r="N4">
-        <v>13.97282164224412</v>
+        <v>21.06291254860909</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.618173045822184</v>
+        <v>12.86100215969237</v>
       </c>
       <c r="D5">
-        <v>3.634668699416156</v>
+        <v>6.42393075840102</v>
       </c>
       <c r="E5">
-        <v>7.582138008929739</v>
+        <v>13.14656585652854</v>
       </c>
       <c r="F5">
-        <v>32.09189161663359</v>
+        <v>47.94246806535997</v>
       </c>
       <c r="G5">
-        <v>42.42960513172601</v>
+        <v>59.75082703970438</v>
       </c>
       <c r="H5">
-        <v>13.77143421806036</v>
+        <v>22.09850736206935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.340286401296545</v>
+        <v>11.08759441254678</v>
       </c>
       <c r="K5">
-        <v>17.97702929458623</v>
+        <v>20.54754596627496</v>
       </c>
       <c r="L5">
-        <v>5.184287383353436</v>
+        <v>9.154249567586522</v>
       </c>
       <c r="M5">
-        <v>15.13706194619316</v>
+        <v>21.77149708303594</v>
       </c>
       <c r="N5">
-        <v>14.03985385965273</v>
+        <v>21.08249521317235</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.607205529595243</v>
+        <v>12.86080144089408</v>
       </c>
       <c r="D6">
-        <v>3.631015219389131</v>
+        <v>6.423746214499894</v>
       </c>
       <c r="E6">
-        <v>7.581562678675394</v>
+        <v>13.14766359120934</v>
       </c>
       <c r="F6">
-        <v>32.07084781204744</v>
+        <v>47.94643663388797</v>
       </c>
       <c r="G6">
-        <v>42.39121800009696</v>
+        <v>59.75443753801191</v>
       </c>
       <c r="H6">
-        <v>13.76999688141031</v>
+        <v>22.10129093390443</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.342657024740863</v>
+        <v>11.08878617528474</v>
       </c>
       <c r="K6">
-        <v>17.92482482488682</v>
+        <v>20.53774791915877</v>
       </c>
       <c r="L6">
-        <v>5.185428918982248</v>
+        <v>9.154773779028449</v>
       </c>
       <c r="M6">
-        <v>15.10808644636441</v>
+        <v>21.76871221577595</v>
       </c>
       <c r="N6">
-        <v>14.05102833207217</v>
+        <v>21.08577736980606</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.683545028202252</v>
+        <v>12.86241695998856</v>
       </c>
       <c r="D7">
-        <v>3.656372067241032</v>
+        <v>6.425071146181055</v>
       </c>
       <c r="E7">
-        <v>7.585829262641859</v>
+        <v>13.14017629415323</v>
       </c>
       <c r="F7">
-        <v>32.21924154044101</v>
+        <v>47.91987065658213</v>
       </c>
       <c r="G7">
-        <v>42.66099116680183</v>
+        <v>59.73081918302655</v>
       </c>
       <c r="H7">
-        <v>13.78091559341774</v>
+        <v>22.08233272906886</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.326371846106841</v>
+        <v>11.0806039824727</v>
       </c>
       <c r="K7">
-        <v>18.28486521477962</v>
+        <v>20.60605453612496</v>
       </c>
       <c r="L7">
-        <v>5.177564444996717</v>
+        <v>9.15117153384624</v>
       </c>
       <c r="M7">
-        <v>15.30876450729733</v>
+        <v>21.78837919880781</v>
       </c>
       <c r="N7">
-        <v>13.97372275295371</v>
+        <v>21.06317460579971</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.025172410222741</v>
+        <v>12.87503603163437</v>
       </c>
       <c r="D8">
-        <v>3.768053152288987</v>
+        <v>6.432000169063847</v>
       </c>
       <c r="E8">
-        <v>7.611527350899296</v>
+        <v>13.11040473136593</v>
       </c>
       <c r="F8">
-        <v>32.93243127711293</v>
+        <v>47.82694821820152</v>
       </c>
       <c r="G8">
-        <v>43.93413389736934</v>
+        <v>59.66237838866449</v>
       </c>
       <c r="H8">
-        <v>13.85318408438269</v>
+        <v>22.00766686317091</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.258739094879048</v>
+        <v>11.04671977166647</v>
       </c>
       <c r="K8">
-        <v>19.81447818380506</v>
+        <v>20.91438655710615</v>
       </c>
       <c r="L8">
-        <v>5.144303692372207</v>
+        <v>9.136172957709929</v>
       </c>
       <c r="M8">
-        <v>16.18167805276746</v>
+        <v>21.88342021986346</v>
       </c>
       <c r="N8">
-        <v>13.63864004796485</v>
+        <v>20.96784999812488</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.707725564820963</v>
+        <v>12.91938278137021</v>
       </c>
       <c r="D9">
-        <v>3.984924385047966</v>
+        <v>6.449416954791685</v>
       </c>
       <c r="E9">
-        <v>7.687692380006046</v>
+        <v>13.06374433086714</v>
       </c>
       <c r="F9">
-        <v>34.54719239251748</v>
+        <v>47.73252104171043</v>
       </c>
       <c r="G9">
-        <v>46.73045380976152</v>
+        <v>59.65745193659993</v>
       </c>
       <c r="H9">
-        <v>14.08890117827652</v>
+        <v>21.8937008920056</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.141701130147641</v>
+        <v>10.98822461537773</v>
       </c>
       <c r="K9">
-        <v>22.58868522697124</v>
+        <v>21.53947410502304</v>
       </c>
       <c r="L9">
-        <v>5.084091685160563</v>
+        <v>9.10996425819801</v>
       </c>
       <c r="M9">
-        <v>17.83479136066485</v>
+        <v>22.09860237520207</v>
       </c>
       <c r="N9">
-        <v>12.99992669648677</v>
+        <v>20.79666872852528</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.21353421267422</v>
+        <v>12.96376695453056</v>
       </c>
       <c r="D10">
-        <v>4.141901352238746</v>
+        <v>6.464491427213716</v>
       </c>
       <c r="E10">
-        <v>7.760387937971985</v>
+        <v>13.03658598123773</v>
       </c>
       <c r="F10">
-        <v>35.87064104988106</v>
+        <v>47.716988857208</v>
       </c>
       <c r="G10">
-        <v>48.96944718424378</v>
+        <v>59.73308781752449</v>
       </c>
       <c r="H10">
-        <v>14.32623388742919</v>
+        <v>21.82987169071208</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.06564529939237</v>
+        <v>10.95006355033791</v>
       </c>
       <c r="K10">
-        <v>24.57752940990154</v>
+        <v>22.00719750999507</v>
       </c>
       <c r="L10">
-        <v>5.042732143597009</v>
+        <v>9.092641288425964</v>
       </c>
       <c r="M10">
-        <v>19.00466613637266</v>
+        <v>22.27341119834638</v>
       </c>
       <c r="N10">
-        <v>12.53835142470452</v>
+        <v>20.68038424265815</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.44404772560015</v>
+        <v>12.98648197011567</v>
       </c>
       <c r="D11">
-        <v>4.212620781917734</v>
+        <v>6.471831362939787</v>
       </c>
       <c r="E11">
-        <v>7.79732489736694</v>
+        <v>13.02577256609863</v>
       </c>
       <c r="F11">
-        <v>36.5036166038453</v>
+        <v>47.72166193455293</v>
       </c>
       <c r="G11">
-        <v>50.0286900130307</v>
+        <v>59.7847488334747</v>
       </c>
       <c r="H11">
-        <v>14.44961912365148</v>
+        <v>21.80517874061389</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.033315394973885</v>
+        <v>10.93374193423962</v>
       </c>
       <c r="K11">
-        <v>25.49693346749364</v>
+        <v>22.22096607451839</v>
       </c>
       <c r="L11">
-        <v>5.024499718463198</v>
+        <v>9.085175939164026</v>
       </c>
       <c r="M11">
-        <v>19.52591548227401</v>
+        <v>22.35636720660519</v>
       </c>
       <c r="N11">
-        <v>12.32917214911626</v>
+        <v>20.62951690493697</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.53136611436682</v>
+        <v>12.99544255363835</v>
       </c>
       <c r="D12">
-        <v>4.23928905814476</v>
+        <v>6.47467904304314</v>
       </c>
       <c r="E12">
-        <v>7.811888060946502</v>
+        <v>13.02189896033714</v>
       </c>
       <c r="F12">
-        <v>36.74785861889355</v>
+        <v>47.7251213932275</v>
       </c>
       <c r="G12">
-        <v>50.43573139818977</v>
+        <v>59.80679158009838</v>
       </c>
       <c r="H12">
-        <v>14.49868395987538</v>
+        <v>21.7964544325086</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.021410262998533</v>
+        <v>10.92771012709354</v>
       </c>
       <c r="K12">
-        <v>25.8388891360678</v>
+        <v>22.30198790313485</v>
       </c>
       <c r="L12">
-        <v>5.017675604060832</v>
+        <v>9.082408344655997</v>
       </c>
       <c r="M12">
-        <v>19.72166083210148</v>
+        <v>22.38825633495159</v>
       </c>
       <c r="N12">
-        <v>12.24999601459586</v>
+        <v>20.61054492081671</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.51255968758729</v>
+        <v>12.9934968390525</v>
       </c>
       <c r="D13">
-        <v>4.23355070253716</v>
+        <v>6.474062729786873</v>
       </c>
       <c r="E13">
-        <v>7.80872567978725</v>
+        <v>13.02272337932021</v>
       </c>
       <c r="F13">
-        <v>36.69505267765346</v>
+        <v>47.72430116267039</v>
       </c>
       <c r="G13">
-        <v>50.347802421217</v>
+        <v>59.80193403670595</v>
       </c>
       <c r="H13">
-        <v>14.48801081825201</v>
+        <v>21.79830548243644</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.023959039215065</v>
+        <v>10.92900257207279</v>
       </c>
       <c r="K13">
-        <v>25.76551622272489</v>
+        <v>22.28453630913654</v>
       </c>
       <c r="L13">
-        <v>5.019141796689664</v>
+        <v>9.083001759837545</v>
       </c>
       <c r="M13">
-        <v>19.67957731313566</v>
+        <v>22.38136759365755</v>
       </c>
       <c r="N13">
-        <v>12.26704776734634</v>
+        <v>20.61461798945212</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.4512310468063</v>
+        <v>12.9872119947453</v>
       </c>
       <c r="D14">
-        <v>4.214817096224587</v>
+        <v>6.472064283201339</v>
       </c>
       <c r="E14">
-        <v>7.798511357215536</v>
+        <v>13.02544945141437</v>
       </c>
       <c r="F14">
-        <v>36.52361875899327</v>
+        <v>47.72191267245369</v>
       </c>
       <c r="G14">
-        <v>50.06205815049137</v>
+        <v>59.78651262039024</v>
       </c>
       <c r="H14">
-        <v>14.45360806728583</v>
+        <v>21.80444842304493</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.032329118332703</v>
+        <v>10.93324271343364</v>
       </c>
       <c r="K14">
-        <v>25.5251897795725</v>
+        <v>22.22763074408341</v>
       </c>
       <c r="L14">
-        <v>5.023936710593995</v>
+        <v>9.084947059314823</v>
       </c>
       <c r="M14">
-        <v>19.54205273728739</v>
+        <v>22.35898132282422</v>
       </c>
       <c r="N14">
-        <v>12.32265804700604</v>
+        <v>20.62795025853503</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.41366835549453</v>
+        <v>12.98340895690097</v>
       </c>
       <c r="D15">
-        <v>4.203327359161086</v>
+        <v>6.470849023914376</v>
       </c>
       <c r="E15">
-        <v>7.79233040199103</v>
+        <v>13.02714804379552</v>
       </c>
       <c r="F15">
-        <v>36.41920606892729</v>
+        <v>47.72066975850968</v>
       </c>
       <c r="G15">
-        <v>49.88780658811201</v>
+        <v>59.77738942377122</v>
       </c>
       <c r="H15">
-        <v>14.43284406143592</v>
+        <v>21.80829277609458</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.03750034782782</v>
+        <v>10.93585929232736</v>
       </c>
       <c r="K15">
-        <v>25.37717975041144</v>
+        <v>22.19278176329439</v>
       </c>
       <c r="L15">
-        <v>5.026884054664036</v>
+        <v>9.086146334466644</v>
       </c>
       <c r="M15">
-        <v>19.45759978608509</v>
+        <v>22.34533044983223</v>
       </c>
       <c r="N15">
-        <v>12.35672310943405</v>
+        <v>20.63615442339383</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.19847502197402</v>
+        <v>12.96233293044467</v>
       </c>
       <c r="D16">
-        <v>4.13726466580284</v>
+        <v>6.464021354315633</v>
       </c>
       <c r="E16">
-        <v>7.758053510417044</v>
+        <v>13.03732363937048</v>
       </c>
       <c r="F16">
-        <v>35.82990520827915</v>
+        <v>47.71691985882874</v>
       </c>
       <c r="G16">
-        <v>48.90104791796091</v>
+        <v>59.73005879493408</v>
       </c>
       <c r="H16">
-        <v>14.31849121199548</v>
+        <v>21.83157298908185</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.06780471281483</v>
+        <v>10.95115105710322</v>
       </c>
       <c r="K16">
-        <v>24.51656785118232</v>
+        <v>21.99324120821842</v>
       </c>
       <c r="L16">
-        <v>5.043935088297788</v>
+        <v>9.093137490931587</v>
       </c>
       <c r="M16">
-        <v>18.97037477491512</v>
+        <v>22.26805738442544</v>
       </c>
       <c r="N16">
-        <v>12.55203120569182</v>
+        <v>20.68374926809826</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.06654162371665</v>
+        <v>12.9500472385287</v>
       </c>
       <c r="D17">
-        <v>4.096550955861467</v>
+        <v>6.459955550824553</v>
       </c>
       <c r="E17">
-        <v>7.73803002858075</v>
+        <v>13.0439604585439</v>
       </c>
       <c r="F17">
-        <v>35.47637683966067</v>
+        <v>47.71762767583889</v>
       </c>
       <c r="G17">
-        <v>48.30617229942348</v>
+        <v>59.70544207511702</v>
       </c>
       <c r="H17">
-        <v>14.25237645359729</v>
+        <v>21.84696839456962</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.086984019316944</v>
+        <v>10.96079761581472</v>
       </c>
       <c r="K17">
-        <v>23.97740023028162</v>
+        <v>21.8710342770819</v>
       </c>
       <c r="L17">
-        <v>5.054541977019572</v>
+        <v>9.097532405823955</v>
       </c>
       <c r="M17">
-        <v>18.66862015400335</v>
+        <v>22.22151968356114</v>
       </c>
       <c r="N17">
-        <v>12.67199609653987</v>
+        <v>20.71346615988327</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.990697683607815</v>
+        <v>12.94321871613122</v>
       </c>
       <c r="D18">
-        <v>4.073069130681888</v>
+        <v>6.457662494245173</v>
       </c>
       <c r="E18">
-        <v>7.726875824164489</v>
+        <v>13.04792285794721</v>
       </c>
       <c r="F18">
-        <v>35.27594143905956</v>
+        <v>47.71913966303555</v>
       </c>
       <c r="G18">
-        <v>47.9678413099638</v>
+        <v>59.69290744856382</v>
       </c>
       <c r="H18">
-        <v>14.21579296734609</v>
+        <v>21.85623213299177</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.098228188116038</v>
+        <v>10.96644379242103</v>
       </c>
       <c r="K18">
-        <v>23.66311906292358</v>
+        <v>21.80084230668031</v>
       </c>
       <c r="L18">
-        <v>5.060697812807539</v>
+        <v>9.100099320047141</v>
       </c>
       <c r="M18">
-        <v>18.49403210148668</v>
+        <v>22.19507685903761</v>
       </c>
       <c r="N18">
-        <v>12.74107656419312</v>
+        <v>20.73074980334874</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.965026377747353</v>
+        <v>12.94094767116515</v>
       </c>
       <c r="D19">
-        <v>4.065107950446014</v>
+        <v>6.456893952183367</v>
       </c>
       <c r="E19">
-        <v>7.723160923139748</v>
+        <v>13.04928938726938</v>
       </c>
       <c r="F19">
-        <v>35.20857356833796</v>
+        <v>47.71984128279126</v>
       </c>
       <c r="G19">
-        <v>47.85394367555101</v>
+        <v>59.68894240177806</v>
       </c>
       <c r="H19">
-        <v>14.20365070556147</v>
+        <v>21.85943881424864</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.1020714872682</v>
+        <v>10.96837228957952</v>
       </c>
       <c r="K19">
-        <v>23.56610965532045</v>
+        <v>21.77709557297865</v>
       </c>
       <c r="L19">
-        <v>5.062791631209188</v>
+        <v>9.100975153482477</v>
       </c>
       <c r="M19">
-        <v>18.43474579028211</v>
+        <v>22.18618004294139</v>
       </c>
       <c r="N19">
-        <v>12.76448200791729</v>
+        <v>20.73663465108725</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.08058222038639</v>
+        <v>12.95133048000316</v>
       </c>
       <c r="D20">
-        <v>4.100891760318663</v>
+        <v>6.460383663299563</v>
       </c>
       <c r="E20">
-        <v>7.740123876909781</v>
+        <v>13.0432389458108</v>
       </c>
       <c r="F20">
-        <v>35.51370923510741</v>
+        <v>47.71743796092112</v>
       </c>
       <c r="G20">
-        <v>48.36910146132993</v>
+        <v>59.70789446326439</v>
       </c>
       <c r="H20">
-        <v>14.25926414917691</v>
+        <v>21.84528721419693</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.08492025437455</v>
+        <v>10.95976061156213</v>
       </c>
       <c r="K20">
-        <v>24.03522571025852</v>
+        <v>21.88403376808069</v>
       </c>
       <c r="L20">
-        <v>5.053407185184466</v>
+        <v>9.097060517652997</v>
       </c>
       <c r="M20">
-        <v>18.70084930216985</v>
+        <v>22.22644025507243</v>
       </c>
       <c r="N20">
-        <v>12.65921791166716</v>
+        <v>20.71028296233083</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.46924419823226</v>
+        <v>12.98904830010297</v>
       </c>
       <c r="D21">
-        <v>4.220322726259616</v>
+        <v>6.472649433855471</v>
       </c>
       <c r="E21">
-        <v>7.801495756751178</v>
+        <v>13.02464273795338</v>
       </c>
       <c r="F21">
-        <v>36.57384874312093</v>
+        <v>47.72256835852265</v>
       </c>
       <c r="G21">
-        <v>50.14582645582678</v>
+        <v>59.79097498510614</v>
       </c>
       <c r="H21">
-        <v>14.46364843582917</v>
+        <v>21.80262707892026</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.029861365769975</v>
+        <v>10.93199324523414</v>
       </c>
       <c r="K21">
-        <v>25.5959465714663</v>
+        <v>22.24434388779185</v>
       </c>
       <c r="L21">
-        <v>5.022526184118614</v>
+        <v>9.08437406875691</v>
       </c>
       <c r="M21">
-        <v>19.58249196363523</v>
+        <v>22.36554395877857</v>
       </c>
       <c r="N21">
-        <v>12.30632366101203</v>
+        <v>20.62402638071723</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.72341330467457</v>
+        <v>13.01578884174795</v>
       </c>
       <c r="D22">
-        <v>4.297723177980798</v>
+        <v>6.481062810157794</v>
       </c>
       <c r="E22">
-        <v>7.844972948390532</v>
+        <v>13.01377816357471</v>
       </c>
       <c r="F22">
-        <v>37.29328058431409</v>
+        <v>47.73577122841697</v>
       </c>
       <c r="G22">
-        <v>51.34164507575208</v>
+        <v>59.85972486374175</v>
       </c>
       <c r="H22">
-        <v>14.61093389635591</v>
+        <v>21.77839797061251</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.995850788542835</v>
+        <v>10.9147129915685</v>
       </c>
       <c r="K22">
-        <v>26.5798932173894</v>
+        <v>22.48021672139452</v>
       </c>
       <c r="L22">
-        <v>5.002808732202626</v>
+        <v>9.076428664899963</v>
       </c>
       <c r="M22">
-        <v>20.14912295257851</v>
+        <v>22.45921875837242</v>
       </c>
       <c r="N22">
-        <v>12.07585163204478</v>
+        <v>20.56934445532388</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.58775186796472</v>
+        <v>13.00132715544349</v>
       </c>
       <c r="D23">
-        <v>4.256476412050373</v>
+        <v>6.476536505545763</v>
       </c>
       <c r="E23">
-        <v>7.821453390591334</v>
+        <v>13.01945897418522</v>
       </c>
       <c r="F23">
-        <v>36.9068371682166</v>
+        <v>47.727823038231</v>
       </c>
       <c r="G23">
-        <v>50.70020991456779</v>
+        <v>59.82171050388184</v>
       </c>
       <c r="H23">
-        <v>14.53102861478867</v>
+        <v>21.79099479684639</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.013818145936497</v>
+        <v>10.9238565696873</v>
       </c>
       <c r="K23">
-        <v>26.05799053233942</v>
+        <v>22.35431455836209</v>
       </c>
       <c r="L23">
-        <v>5.013291017772007</v>
+        <v>9.080637722615849</v>
       </c>
       <c r="M23">
-        <v>19.84759250485263</v>
+        <v>22.40897624673361</v>
       </c>
       <c r="N23">
-        <v>12.1988718642825</v>
+        <v>20.59837499004975</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.07423444432561</v>
+        <v>12.95074959522829</v>
       </c>
       <c r="D24">
-        <v>4.098929515168352</v>
+        <v>6.460189975184599</v>
       </c>
       <c r="E24">
-        <v>7.739176135836943</v>
+        <v>13.04356468441899</v>
       </c>
       <c r="F24">
-        <v>35.49682250525943</v>
+        <v>47.71752028903887</v>
       </c>
       <c r="G24">
-        <v>48.34063975812629</v>
+        <v>59.70678069905976</v>
       </c>
       <c r="H24">
-        <v>14.25614578727257</v>
+        <v>21.84604599039407</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.085852605162582</v>
+        <v>10.96022912891029</v>
       </c>
       <c r="K24">
-        <v>24.00909623557222</v>
+        <v>21.87815648584431</v>
       </c>
       <c r="L24">
-        <v>5.053920044286924</v>
+        <v>9.097273732995959</v>
       </c>
       <c r="M24">
-        <v>18.6862819415217</v>
+        <v>22.22421469045913</v>
       </c>
       <c r="N24">
-        <v>12.66499457729668</v>
+        <v>20.71172146591227</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.522101873472687</v>
+        <v>12.90530095074928</v>
       </c>
       <c r="D25">
-        <v>3.926600013912361</v>
+        <v>6.444300959813451</v>
       </c>
       <c r="E25">
-        <v>7.664224215706573</v>
+        <v>13.0751146171039</v>
       </c>
       <c r="F25">
-        <v>34.08664900634227</v>
+        <v>47.74862974299781</v>
       </c>
       <c r="G25">
-        <v>45.94170372544562</v>
+        <v>59.64488857857626</v>
       </c>
       <c r="H25">
-        <v>14.01436480431326</v>
+        <v>21.92104484002412</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.171653336387983</v>
+        <v>11.00320118044778</v>
       </c>
       <c r="K25">
-        <v>21.86314279287658</v>
+        <v>21.36859348354364</v>
       </c>
       <c r="L25">
-        <v>5.099861729619771</v>
+        <v>9.116713565746098</v>
       </c>
       <c r="M25">
-        <v>17.394897468306</v>
+        <v>22.03738976802329</v>
       </c>
       <c r="N25">
-        <v>13.17109305034951</v>
+        <v>20.84130401619938</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.87978613001893</v>
+        <v>9.118732071268978</v>
       </c>
       <c r="D2">
-        <v>6.434138702286823</v>
+        <v>3.798212144381421</v>
       </c>
       <c r="E2">
-        <v>13.10313218565756</v>
+        <v>7.620196913095273</v>
       </c>
       <c r="F2">
-        <v>47.80769781778141</v>
+        <v>33.14009063010971</v>
       </c>
       <c r="G2">
-        <v>59.65256156450099</v>
+        <v>44.29929759034248</v>
       </c>
       <c r="H2">
-        <v>21.98962784616776</v>
+        <v>13.87887281606785</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.03807818784017</v>
+        <v>6.241455130308104</v>
       </c>
       <c r="K2">
-        <v>20.99946033114414</v>
+        <v>20.21402105399492</v>
       </c>
       <c r="L2">
-        <v>9.132326649967723</v>
+        <v>5.135637128461563</v>
       </c>
       <c r="M2">
-        <v>21.91115033868612</v>
+        <v>16.41462494096634</v>
       </c>
       <c r="N2">
-        <v>20.94309213598616</v>
+        <v>13.5492139882124</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>12.86750037049279</v>
+        <v>8.848443212448512</v>
       </c>
       <c r="D3">
-        <v>6.428228427607915</v>
+        <v>3.710612434620145</v>
       </c>
       <c r="E3">
-        <v>13.12511409481182</v>
+        <v>7.596981098968127</v>
       </c>
       <c r="F3">
-        <v>47.87017924896716</v>
+        <v>32.55408966710747</v>
       </c>
       <c r="G3">
-        <v>59.69082686155478</v>
+        <v>43.26293266216633</v>
       </c>
       <c r="H3">
-        <v>22.04440399290321</v>
+        <v>13.81131694740413</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.06374489582541</v>
+        <v>6.292754639062387</v>
       </c>
       <c r="K3">
-        <v>20.75438594987395</v>
+        <v>19.03836354570504</v>
       </c>
       <c r="L3">
-        <v>9.143725407623759</v>
+        <v>5.161157032985331</v>
       </c>
       <c r="M3">
-        <v>21.83293413134121</v>
+        <v>15.73484065122659</v>
       </c>
       <c r="N3">
-        <v>21.0160937192585</v>
+        <v>13.81005510125453</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>12.86243887225138</v>
+        <v>8.684441124750876</v>
       </c>
       <c r="D4">
-        <v>6.425087244499639</v>
+        <v>3.656668726284488</v>
       </c>
       <c r="E4">
-        <v>13.14009047314802</v>
+        <v>7.585882895361933</v>
       </c>
       <c r="F4">
-        <v>47.91957307859553</v>
+        <v>32.22100950188246</v>
       </c>
       <c r="G4">
-        <v>59.73056235716435</v>
+        <v>42.66419288970248</v>
       </c>
       <c r="H4">
-        <v>22.08211580889342</v>
+        <v>13.78105618187643</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.08050945842339</v>
+        <v>6.32618358859148</v>
       </c>
       <c r="K4">
-        <v>20.60685778962484</v>
+        <v>18.28904656871531</v>
       </c>
       <c r="L4">
-        <v>9.151129875271762</v>
+        <v>5.177473218898153</v>
       </c>
       <c r="M4">
-        <v>21.78861388009111</v>
+        <v>15.31110650846695</v>
       </c>
       <c r="N4">
-        <v>21.06291254860909</v>
+        <v>13.97282164224412</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>12.86100215969237</v>
+        <v>8.618173045822356</v>
       </c>
       <c r="D5">
-        <v>6.42393075840102</v>
+        <v>3.634668699416315</v>
       </c>
       <c r="E5">
-        <v>13.14656585652854</v>
+        <v>7.582138008929793</v>
       </c>
       <c r="F5">
-        <v>47.94246806535997</v>
+        <v>32.09189161663365</v>
       </c>
       <c r="G5">
-        <v>59.75082703970438</v>
+        <v>42.42960513172598</v>
       </c>
       <c r="H5">
-        <v>22.09850736206935</v>
+        <v>13.77143421806041</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.08759441254678</v>
+        <v>6.340286401296515</v>
       </c>
       <c r="K5">
-        <v>20.54754596627496</v>
+        <v>17.97702929458625</v>
       </c>
       <c r="L5">
-        <v>9.154249567586522</v>
+        <v>5.184287383353468</v>
       </c>
       <c r="M5">
-        <v>21.77149708303594</v>
+        <v>15.13706194619317</v>
       </c>
       <c r="N5">
-        <v>21.08249521317235</v>
+        <v>14.0398538596528</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12.86080144089408</v>
+        <v>8.607205529595229</v>
       </c>
       <c r="D6">
-        <v>6.423746214499894</v>
+        <v>3.631015219389174</v>
       </c>
       <c r="E6">
-        <v>13.14766359120934</v>
+        <v>7.581562678675451</v>
       </c>
       <c r="F6">
-        <v>47.94643663388797</v>
+        <v>32.07084781204736</v>
       </c>
       <c r="G6">
-        <v>59.75443753801191</v>
+        <v>42.39121800009681</v>
       </c>
       <c r="H6">
-        <v>22.10129093390443</v>
+        <v>13.76999688141032</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.08878617528474</v>
+        <v>6.342657024740893</v>
       </c>
       <c r="K6">
-        <v>20.53774791915877</v>
+        <v>17.92482482488681</v>
       </c>
       <c r="L6">
-        <v>9.154773779028449</v>
+        <v>5.18542891898228</v>
       </c>
       <c r="M6">
-        <v>21.76871221577595</v>
+        <v>15.10808644636441</v>
       </c>
       <c r="N6">
-        <v>21.08577736980606</v>
+        <v>14.0510283320721</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>12.86241695998856</v>
+        <v>8.683545028202163</v>
       </c>
       <c r="D7">
-        <v>6.425071146181055</v>
+        <v>3.656372067240921</v>
       </c>
       <c r="E7">
-        <v>13.14017629415323</v>
+        <v>7.58582926264191</v>
       </c>
       <c r="F7">
-        <v>47.91987065658213</v>
+        <v>32.219241540441</v>
       </c>
       <c r="G7">
-        <v>59.73081918302655</v>
+        <v>42.66099116680191</v>
       </c>
       <c r="H7">
-        <v>22.08233272906886</v>
+        <v>13.78091559341774</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.0806039824727</v>
+        <v>6.326371846106967</v>
       </c>
       <c r="K7">
-        <v>20.60605453612496</v>
+        <v>18.28486521477962</v>
       </c>
       <c r="L7">
-        <v>9.15117153384624</v>
+        <v>5.177564444996783</v>
       </c>
       <c r="M7">
-        <v>21.78837919880781</v>
+        <v>15.30876450729735</v>
       </c>
       <c r="N7">
-        <v>21.06317460579971</v>
+        <v>13.97372275295371</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>12.87503603163437</v>
+        <v>9.02517241022267</v>
       </c>
       <c r="D8">
-        <v>6.432000169063847</v>
+        <v>3.768053152288833</v>
       </c>
       <c r="E8">
-        <v>13.11040473136593</v>
+        <v>7.611527350899245</v>
       </c>
       <c r="F8">
-        <v>47.82694821820152</v>
+        <v>32.93243127711273</v>
       </c>
       <c r="G8">
-        <v>59.66237838866449</v>
+        <v>43.93413389736919</v>
       </c>
       <c r="H8">
-        <v>22.00766686317091</v>
+        <v>13.85318408438256</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.04671977166647</v>
+        <v>6.258739094879013</v>
       </c>
       <c r="K8">
-        <v>20.91438655710615</v>
+        <v>19.81447818380505</v>
       </c>
       <c r="L8">
-        <v>9.136172957709929</v>
+        <v>5.144303692372207</v>
       </c>
       <c r="M8">
-        <v>21.88342021986346</v>
+        <v>16.18167805276741</v>
       </c>
       <c r="N8">
-        <v>20.96784999812488</v>
+        <v>13.63864004796482</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>12.91938278137021</v>
+        <v>9.707725564820853</v>
       </c>
       <c r="D9">
-        <v>6.449416954791685</v>
+        <v>3.984924385047962</v>
       </c>
       <c r="E9">
-        <v>13.06374433086714</v>
+        <v>7.687692380005949</v>
       </c>
       <c r="F9">
-        <v>47.73252104171043</v>
+        <v>34.54719239251736</v>
       </c>
       <c r="G9">
-        <v>59.65745193659993</v>
+        <v>46.73045380976141</v>
       </c>
       <c r="H9">
-        <v>21.8937008920056</v>
+        <v>14.08890117827641</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.98822461537773</v>
+        <v>6.141701130147551</v>
       </c>
       <c r="K9">
-        <v>21.53947410502304</v>
+        <v>22.58868522697124</v>
       </c>
       <c r="L9">
-        <v>9.10996425819801</v>
+        <v>5.084091685160566</v>
       </c>
       <c r="M9">
-        <v>22.09860237520207</v>
+        <v>17.83479136066483</v>
       </c>
       <c r="N9">
-        <v>20.79666872852528</v>
+        <v>12.99992669648664</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>12.96376695453056</v>
+        <v>10.21353421267431</v>
       </c>
       <c r="D10">
-        <v>6.464491427213716</v>
+        <v>4.141901352238789</v>
       </c>
       <c r="E10">
-        <v>13.03658598123773</v>
+        <v>7.760387937972096</v>
       </c>
       <c r="F10">
-        <v>47.716988857208</v>
+        <v>35.87064104988104</v>
       </c>
       <c r="G10">
-        <v>59.73308781752449</v>
+        <v>48.96944718424371</v>
       </c>
       <c r="H10">
-        <v>21.82987169071208</v>
+        <v>14.32623388742919</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.95006355033791</v>
+        <v>6.065645299392345</v>
       </c>
       <c r="K10">
-        <v>22.00719750999507</v>
+        <v>24.57752940990156</v>
       </c>
       <c r="L10">
-        <v>9.092641288425964</v>
+        <v>5.042732143597009</v>
       </c>
       <c r="M10">
-        <v>22.27341119834638</v>
+        <v>19.00466613637266</v>
       </c>
       <c r="N10">
-        <v>20.68038424265815</v>
+        <v>12.53835142470452</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.98648197011567</v>
+        <v>10.44404772560007</v>
       </c>
       <c r="D11">
-        <v>6.471831362939787</v>
+        <v>4.212620781917697</v>
       </c>
       <c r="E11">
-        <v>13.02577256609863</v>
+        <v>7.797324897366839</v>
       </c>
       <c r="F11">
-        <v>47.72166193455293</v>
+        <v>36.50361660384542</v>
       </c>
       <c r="G11">
-        <v>59.7847488334747</v>
+        <v>50.02869001303078</v>
       </c>
       <c r="H11">
-        <v>21.80517874061389</v>
+        <v>14.44961912365156</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.93374193423962</v>
+        <v>6.03331539497388</v>
       </c>
       <c r="K11">
-        <v>22.22096607451839</v>
+        <v>25.49693346749356</v>
       </c>
       <c r="L11">
-        <v>9.085175939164026</v>
+        <v>5.024499718463164</v>
       </c>
       <c r="M11">
-        <v>22.35636720660519</v>
+        <v>19.52591548227402</v>
       </c>
       <c r="N11">
-        <v>20.62951690493697</v>
+        <v>12.3291721491163</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.99544255363835</v>
+        <v>10.5313661143667</v>
       </c>
       <c r="D12">
-        <v>6.47467904304314</v>
+        <v>4.239289058144646</v>
       </c>
       <c r="E12">
-        <v>13.02189896033714</v>
+        <v>7.811888060946461</v>
       </c>
       <c r="F12">
-        <v>47.7251213932275</v>
+        <v>36.74785861889349</v>
       </c>
       <c r="G12">
-        <v>59.80679158009838</v>
+        <v>50.43573139818982</v>
       </c>
       <c r="H12">
-        <v>21.7964544325086</v>
+        <v>14.49868395987534</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.92771012709354</v>
+        <v>6.021410262998561</v>
       </c>
       <c r="K12">
-        <v>22.30198790313485</v>
+        <v>25.83888913606777</v>
       </c>
       <c r="L12">
-        <v>9.082408344655997</v>
+        <v>5.017675604060896</v>
       </c>
       <c r="M12">
-        <v>22.38825633495159</v>
+        <v>19.72166083210147</v>
       </c>
       <c r="N12">
-        <v>20.61054492081671</v>
+        <v>12.24999601459579</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.9934968390525</v>
+        <v>10.51255968758732</v>
       </c>
       <c r="D13">
-        <v>6.474062729786873</v>
+        <v>4.233550702537082</v>
       </c>
       <c r="E13">
-        <v>13.02272337932021</v>
+        <v>7.808725679787259</v>
       </c>
       <c r="F13">
-        <v>47.72430116267039</v>
+        <v>36.69505267765346</v>
       </c>
       <c r="G13">
-        <v>59.80193403670595</v>
+        <v>50.34780242121709</v>
       </c>
       <c r="H13">
-        <v>21.79830548243644</v>
+        <v>14.48801081825201</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.92900257207279</v>
+        <v>6.023959039215094</v>
       </c>
       <c r="K13">
-        <v>22.28453630913654</v>
+        <v>25.76551622272492</v>
       </c>
       <c r="L13">
-        <v>9.083001759837545</v>
+        <v>5.019141796689696</v>
       </c>
       <c r="M13">
-        <v>22.38136759365755</v>
+        <v>19.67957731313566</v>
       </c>
       <c r="N13">
-        <v>20.61461798945212</v>
+        <v>12.26704776734634</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.9872119947453</v>
+        <v>10.4512310468064</v>
       </c>
       <c r="D14">
-        <v>6.472064283201339</v>
+        <v>4.214817096224623</v>
       </c>
       <c r="E14">
-        <v>13.02544945141437</v>
+        <v>7.798511357215626</v>
       </c>
       <c r="F14">
-        <v>47.72191267245369</v>
+        <v>36.52361875899332</v>
       </c>
       <c r="G14">
-        <v>59.78651262039024</v>
+        <v>50.06205815049144</v>
       </c>
       <c r="H14">
-        <v>21.80444842304493</v>
+        <v>14.4536080672858</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.93324271343364</v>
+        <v>6.032329118332756</v>
       </c>
       <c r="K14">
-        <v>22.22763074408341</v>
+        <v>25.5251897795725</v>
       </c>
       <c r="L14">
-        <v>9.084947059314823</v>
+        <v>5.023936710594088</v>
       </c>
       <c r="M14">
-        <v>22.35898132282422</v>
+        <v>19.5420527372874</v>
       </c>
       <c r="N14">
-        <v>20.62795025853503</v>
+        <v>12.32265804700607</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.98340895690097</v>
+        <v>10.41366835549459</v>
       </c>
       <c r="D15">
-        <v>6.470849023914376</v>
+        <v>4.203327359160963</v>
       </c>
       <c r="E15">
-        <v>13.02714804379552</v>
+        <v>7.792330401991125</v>
       </c>
       <c r="F15">
-        <v>47.72066975850968</v>
+        <v>36.41920606892729</v>
       </c>
       <c r="G15">
-        <v>59.77738942377122</v>
+        <v>49.88780658811206</v>
       </c>
       <c r="H15">
-        <v>21.80829277609458</v>
+        <v>14.43284406143595</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.93585929232736</v>
+        <v>6.037500347828026</v>
       </c>
       <c r="K15">
-        <v>22.19278176329439</v>
+        <v>25.37717975041141</v>
       </c>
       <c r="L15">
-        <v>9.086146334466644</v>
+        <v>5.026884054664134</v>
       </c>
       <c r="M15">
-        <v>22.34533044983223</v>
+        <v>19.45759978608513</v>
       </c>
       <c r="N15">
-        <v>20.63615442339383</v>
+        <v>12.35672310943405</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.96233293044467</v>
+        <v>10.19847502197411</v>
       </c>
       <c r="D16">
-        <v>6.464021354315633</v>
+        <v>4.137264665802917</v>
       </c>
       <c r="E16">
-        <v>13.03732363937048</v>
+        <v>7.758053510417034</v>
       </c>
       <c r="F16">
-        <v>47.71691985882874</v>
+        <v>35.82990520827915</v>
       </c>
       <c r="G16">
-        <v>59.73005879493408</v>
+        <v>48.90104791796084</v>
       </c>
       <c r="H16">
-        <v>21.83157298908185</v>
+        <v>14.31849121199548</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.95115105710322</v>
+        <v>6.067804712814767</v>
       </c>
       <c r="K16">
-        <v>21.99324120821842</v>
+        <v>24.51656785118231</v>
       </c>
       <c r="L16">
-        <v>9.093137490931587</v>
+        <v>5.04393508829772</v>
       </c>
       <c r="M16">
-        <v>22.26805738442544</v>
+        <v>18.97037477491511</v>
       </c>
       <c r="N16">
-        <v>20.68374926809826</v>
+        <v>12.55203120569182</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.9500472385287</v>
+        <v>10.06654162371677</v>
       </c>
       <c r="D17">
-        <v>6.459955550824553</v>
+        <v>4.096550955861582</v>
       </c>
       <c r="E17">
-        <v>13.0439604585439</v>
+        <v>7.738030028580904</v>
       </c>
       <c r="F17">
-        <v>47.71762767583889</v>
+        <v>35.4763768396608</v>
       </c>
       <c r="G17">
-        <v>59.70544207511702</v>
+        <v>48.30617229942348</v>
       </c>
       <c r="H17">
-        <v>21.84696839456962</v>
+        <v>14.25237645359739</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.96079761581472</v>
+        <v>6.086984019317007</v>
       </c>
       <c r="K17">
-        <v>21.8710342770819</v>
+        <v>23.97740023028165</v>
       </c>
       <c r="L17">
-        <v>9.097532405823955</v>
+        <v>5.05454197701967</v>
       </c>
       <c r="M17">
-        <v>22.22151968356114</v>
+        <v>18.66862015400338</v>
       </c>
       <c r="N17">
-        <v>20.71346615988327</v>
+        <v>12.67199609653991</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.94321871613122</v>
+        <v>9.990697683607847</v>
       </c>
       <c r="D18">
-        <v>6.457662494245173</v>
+        <v>4.07306913068192</v>
       </c>
       <c r="E18">
-        <v>13.04792285794721</v>
+        <v>7.726875824164445</v>
       </c>
       <c r="F18">
-        <v>47.71913966303555</v>
+        <v>35.27594143905953</v>
       </c>
       <c r="G18">
-        <v>59.69290744856382</v>
+        <v>47.96784130996369</v>
       </c>
       <c r="H18">
-        <v>21.85623213299177</v>
+        <v>14.21579296734609</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.96644379242103</v>
+        <v>6.09822818811592</v>
       </c>
       <c r="K18">
-        <v>21.80084230668031</v>
+        <v>23.6631190629236</v>
       </c>
       <c r="L18">
-        <v>9.100099320047141</v>
+        <v>5.060697812807508</v>
       </c>
       <c r="M18">
-        <v>22.19507685903761</v>
+        <v>18.49403210148665</v>
       </c>
       <c r="N18">
-        <v>20.73074980334874</v>
+        <v>12.74107656419312</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.94094767116515</v>
+        <v>9.965026377747426</v>
       </c>
       <c r="D19">
-        <v>6.456893952183367</v>
+        <v>4.06510795044602</v>
       </c>
       <c r="E19">
-        <v>13.04928938726938</v>
+        <v>7.723160923139802</v>
       </c>
       <c r="F19">
-        <v>47.71984128279126</v>
+        <v>35.20857356833785</v>
       </c>
       <c r="G19">
-        <v>59.68894240177806</v>
+        <v>47.85394367555092</v>
       </c>
       <c r="H19">
-        <v>21.85943881424864</v>
+        <v>14.20365070556138</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.96837228957952</v>
+        <v>6.102071487268266</v>
       </c>
       <c r="K19">
-        <v>21.77709557297865</v>
+        <v>23.56610965532046</v>
       </c>
       <c r="L19">
-        <v>9.100975153482477</v>
+        <v>5.062791631209252</v>
       </c>
       <c r="M19">
-        <v>22.18618004294139</v>
+        <v>18.43474579028209</v>
       </c>
       <c r="N19">
-        <v>20.73663465108725</v>
+        <v>12.76448200791726</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.95133048000316</v>
+        <v>10.08058222038634</v>
       </c>
       <c r="D20">
-        <v>6.460383663299563</v>
+        <v>4.100891760318727</v>
       </c>
       <c r="E20">
-        <v>13.0432389458108</v>
+        <v>7.740123876909842</v>
       </c>
       <c r="F20">
-        <v>47.71743796092112</v>
+        <v>35.51370923510733</v>
       </c>
       <c r="G20">
-        <v>59.70789446326439</v>
+        <v>48.36910146132977</v>
       </c>
       <c r="H20">
-        <v>21.84528721419693</v>
+        <v>14.25926414917685</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.95976061156213</v>
+        <v>6.084920254374553</v>
       </c>
       <c r="K20">
-        <v>21.88403376808069</v>
+        <v>24.03522571025857</v>
       </c>
       <c r="L20">
-        <v>9.097060517652997</v>
+        <v>5.053407185184598</v>
       </c>
       <c r="M20">
-        <v>22.22644025507243</v>
+        <v>18.70084930216985</v>
       </c>
       <c r="N20">
-        <v>20.71028296233083</v>
+        <v>12.65921791166702</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.98904830010297</v>
+        <v>10.46924419823227</v>
       </c>
       <c r="D21">
-        <v>6.472649433855471</v>
+        <v>4.220322726259537</v>
       </c>
       <c r="E21">
-        <v>13.02464273795338</v>
+        <v>7.80149575675103</v>
       </c>
       <c r="F21">
-        <v>47.72256835852265</v>
+        <v>36.5738487431208</v>
       </c>
       <c r="G21">
-        <v>59.79097498510614</v>
+        <v>50.14582645582654</v>
       </c>
       <c r="H21">
-        <v>21.80262707892026</v>
+        <v>14.46364843582919</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.93199324523414</v>
+        <v>6.029861365769882</v>
       </c>
       <c r="K21">
-        <v>22.24434388779185</v>
+        <v>25.59594657146637</v>
       </c>
       <c r="L21">
-        <v>9.08437406875691</v>
+        <v>5.022526184118449</v>
       </c>
       <c r="M21">
-        <v>22.36554395877857</v>
+        <v>19.58249196363519</v>
       </c>
       <c r="N21">
-        <v>20.62402638071723</v>
+        <v>12.30632366101193</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.01578884174795</v>
+        <v>10.72341330467464</v>
       </c>
       <c r="D22">
-        <v>6.481062810157794</v>
+        <v>4.297723177980679</v>
       </c>
       <c r="E22">
-        <v>13.01377816357471</v>
+        <v>7.844972948390537</v>
       </c>
       <c r="F22">
-        <v>47.73577122841697</v>
+        <v>37.29328058431398</v>
       </c>
       <c r="G22">
-        <v>59.85972486374175</v>
+        <v>51.34164507575202</v>
       </c>
       <c r="H22">
-        <v>21.77839797061251</v>
+        <v>14.61093389635587</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.9147129915685</v>
+        <v>5.995850788542893</v>
       </c>
       <c r="K22">
-        <v>22.48021672139452</v>
+        <v>26.57989321738939</v>
       </c>
       <c r="L22">
-        <v>9.076428664899963</v>
+        <v>5.002808732202626</v>
       </c>
       <c r="M22">
-        <v>22.45921875837242</v>
+        <v>20.14912295257849</v>
       </c>
       <c r="N22">
-        <v>20.56934445532388</v>
+        <v>12.07585163204474</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.00132715544349</v>
+        <v>10.58775186796466</v>
       </c>
       <c r="D23">
-        <v>6.476536505545763</v>
+        <v>4.256476412050332</v>
       </c>
       <c r="E23">
-        <v>13.01945897418522</v>
+        <v>7.821453390591343</v>
       </c>
       <c r="F23">
-        <v>47.727823038231</v>
+        <v>36.90683716821658</v>
       </c>
       <c r="G23">
-        <v>59.82171050388184</v>
+        <v>50.70020991456777</v>
       </c>
       <c r="H23">
-        <v>21.79099479684639</v>
+        <v>14.53102861478867</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.9238565696873</v>
+        <v>6.013818145936492</v>
       </c>
       <c r="K23">
-        <v>22.35431455836209</v>
+        <v>26.0579905323394</v>
       </c>
       <c r="L23">
-        <v>9.080637722615849</v>
+        <v>5.013291017772005</v>
       </c>
       <c r="M23">
-        <v>22.40897624673361</v>
+        <v>19.84759250485264</v>
       </c>
       <c r="N23">
-        <v>20.59837499004975</v>
+        <v>12.19887186428254</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.95074959522829</v>
+        <v>10.07423444432566</v>
       </c>
       <c r="D24">
-        <v>6.460189975184599</v>
+        <v>4.098929515168358</v>
       </c>
       <c r="E24">
-        <v>13.04356468441899</v>
+        <v>7.739176135836989</v>
       </c>
       <c r="F24">
-        <v>47.71752028903887</v>
+        <v>35.49682250525943</v>
       </c>
       <c r="G24">
-        <v>59.70678069905976</v>
+        <v>48.34063975812629</v>
       </c>
       <c r="H24">
-        <v>21.84604599039407</v>
+        <v>14.25614578727257</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.96022912891029</v>
+        <v>6.085852605162613</v>
       </c>
       <c r="K24">
-        <v>21.87815648584431</v>
+        <v>24.0090962355722</v>
       </c>
       <c r="L24">
-        <v>9.097273732995959</v>
+        <v>5.05392004428689</v>
       </c>
       <c r="M24">
-        <v>22.22421469045913</v>
+        <v>18.6862819415217</v>
       </c>
       <c r="N24">
-        <v>20.71172146591227</v>
+        <v>12.66499457729668</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12.90530095074928</v>
+        <v>9.522101873472613</v>
       </c>
       <c r="D25">
-        <v>6.444300959813451</v>
+        <v>3.926600013912214</v>
       </c>
       <c r="E25">
-        <v>13.0751146171039</v>
+        <v>7.664224215706465</v>
       </c>
       <c r="F25">
-        <v>47.74862974299781</v>
+        <v>34.08664900634231</v>
       </c>
       <c r="G25">
-        <v>59.64488857857626</v>
+        <v>45.94170372544573</v>
       </c>
       <c r="H25">
-        <v>21.92104484002412</v>
+        <v>14.01436480431334</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.00320118044778</v>
+        <v>6.171653336387926</v>
       </c>
       <c r="K25">
-        <v>21.36859348354364</v>
+        <v>21.8631427928766</v>
       </c>
       <c r="L25">
-        <v>9.116713565746098</v>
+        <v>5.099861729619741</v>
       </c>
       <c r="M25">
-        <v>22.03738976802329</v>
+        <v>17.394897468306</v>
       </c>
       <c r="N25">
-        <v>20.84130401619938</v>
+        <v>13.17109305034951</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.118732071268978</v>
+        <v>9.716924951276685</v>
       </c>
       <c r="D2">
-        <v>3.798212144381421</v>
+        <v>4.795060472303154</v>
       </c>
       <c r="E2">
-        <v>7.620196913095273</v>
+        <v>11.28711623248534</v>
       </c>
       <c r="F2">
-        <v>33.14009063010971</v>
+        <v>23.24970458592731</v>
       </c>
       <c r="G2">
-        <v>44.29929759034248</v>
+        <v>31.78947086492718</v>
       </c>
       <c r="H2">
-        <v>13.87887281606785</v>
+        <v>1.780040213233636</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.520370897006369</v>
       </c>
       <c r="J2">
-        <v>6.241455130308104</v>
+        <v>10.89139302636397</v>
       </c>
       <c r="K2">
-        <v>20.21402105399492</v>
+        <v>20.21907822885823</v>
       </c>
       <c r="L2">
-        <v>5.135637128461563</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>16.41462494096634</v>
+        <v>24.2563974260849</v>
       </c>
       <c r="N2">
-        <v>13.5492139882124</v>
+        <v>6.942431083699824</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.848443212448512</v>
+        <v>9.168646606128284</v>
       </c>
       <c r="D3">
-        <v>3.710612434620145</v>
+        <v>4.734761409717671</v>
       </c>
       <c r="E3">
-        <v>7.596981098968127</v>
+        <v>10.71236222409061</v>
       </c>
       <c r="F3">
-        <v>32.55408966710747</v>
+        <v>22.66750551949813</v>
       </c>
       <c r="G3">
-        <v>43.26293266216633</v>
+        <v>30.92913043269883</v>
       </c>
       <c r="H3">
-        <v>13.81131694740413</v>
+        <v>2.053949583555524</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.76884149481662</v>
       </c>
       <c r="J3">
-        <v>6.292754639062387</v>
+        <v>10.84539371475475</v>
       </c>
       <c r="K3">
-        <v>19.03836354570504</v>
+        <v>19.81186973471277</v>
       </c>
       <c r="L3">
-        <v>5.161157032985331</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>15.73484065122659</v>
+        <v>22.65842398554159</v>
       </c>
       <c r="N3">
-        <v>13.81005510125453</v>
+        <v>6.697099130073888</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.684441124750876</v>
+        <v>8.811990179656428</v>
       </c>
       <c r="D4">
-        <v>3.656668726284488</v>
+        <v>4.696928743174827</v>
       </c>
       <c r="E4">
-        <v>7.585882895361933</v>
+        <v>10.34238597295819</v>
       </c>
       <c r="F4">
-        <v>32.22100950188246</v>
+        <v>22.315059044584</v>
       </c>
       <c r="G4">
-        <v>42.66419288970248</v>
+        <v>30.40682614137342</v>
       </c>
       <c r="H4">
-        <v>13.78105618187643</v>
+        <v>2.227754527327298</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.927447319793729</v>
       </c>
       <c r="J4">
-        <v>6.32618358859148</v>
+        <v>10.82146350108337</v>
       </c>
       <c r="K4">
-        <v>18.28904656871531</v>
+        <v>19.56200762404938</v>
       </c>
       <c r="L4">
-        <v>5.177473218898153</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>15.31110650846695</v>
+        <v>21.61884761527741</v>
       </c>
       <c r="N4">
-        <v>13.97282164224412</v>
+        <v>6.541855346408314</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.618173045822356</v>
+        <v>8.651546461578313</v>
       </c>
       <c r="D5">
-        <v>3.634668699416315</v>
+        <v>4.682820624594456</v>
       </c>
       <c r="E5">
-        <v>7.582138008929793</v>
+        <v>10.18377188302318</v>
       </c>
       <c r="F5">
-        <v>32.09189161663365</v>
+        <v>22.15717207764012</v>
       </c>
       <c r="G5">
-        <v>42.42960513172598</v>
+        <v>30.1675145876842</v>
       </c>
       <c r="H5">
-        <v>13.77143421806041</v>
+        <v>2.300575633398588</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.996776262120491</v>
       </c>
       <c r="J5">
-        <v>6.340286401296515</v>
+        <v>10.80768866076402</v>
       </c>
       <c r="K5">
-        <v>17.97702929458625</v>
+        <v>19.44623667509284</v>
       </c>
       <c r="L5">
-        <v>5.184287383353468</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>15.13706194619317</v>
+        <v>21.1802512938453</v>
       </c>
       <c r="N5">
-        <v>14.0398538596528</v>
+        <v>6.47785673706346</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.607205529595229</v>
+        <v>8.612271230772915</v>
       </c>
       <c r="D6">
-        <v>3.631015219389174</v>
+        <v>4.682323506911602</v>
       </c>
       <c r="E6">
-        <v>7.581562678675451</v>
+        <v>10.15275786310322</v>
       </c>
       <c r="F6">
-        <v>32.07084781204736</v>
+        <v>22.11192376682686</v>
       </c>
       <c r="G6">
-        <v>42.39121800009681</v>
+        <v>30.093502844424</v>
       </c>
       <c r="H6">
-        <v>13.76999688141032</v>
+        <v>2.313426921237636</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.012436127394128</v>
       </c>
       <c r="J6">
-        <v>6.342657024740893</v>
+        <v>10.79927500988382</v>
       </c>
       <c r="K6">
-        <v>17.92482482488681</v>
+        <v>19.40983699329589</v>
       </c>
       <c r="L6">
-        <v>5.18542891898228</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>15.10808644636441</v>
+        <v>21.10627189304582</v>
       </c>
       <c r="N6">
-        <v>14.0510283320721</v>
+        <v>6.467632092875155</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.683545028202163</v>
+        <v>8.776810647425478</v>
       </c>
       <c r="D7">
-        <v>3.656372067240921</v>
+        <v>4.701837490140496</v>
       </c>
       <c r="E7">
-        <v>7.58582926264191</v>
+        <v>10.3283977043724</v>
       </c>
       <c r="F7">
-        <v>32.219241540441</v>
+        <v>22.2611193508441</v>
       </c>
       <c r="G7">
-        <v>42.66099116680191</v>
+        <v>30.31046975532635</v>
       </c>
       <c r="H7">
-        <v>13.78091559341774</v>
+        <v>2.230540184068675</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.939206914787108</v>
       </c>
       <c r="J7">
-        <v>6.326371846106967</v>
+        <v>10.80440768010567</v>
       </c>
       <c r="K7">
-        <v>18.28486521477962</v>
+        <v>19.51379163419055</v>
       </c>
       <c r="L7">
-        <v>5.177564444996783</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>15.30876450729735</v>
+        <v>21.61229484441199</v>
       </c>
       <c r="N7">
-        <v>13.97372275295371</v>
+        <v>6.542269926202109</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.02517241022267</v>
+        <v>9.49112533137613</v>
       </c>
       <c r="D8">
-        <v>3.768053152288833</v>
+        <v>4.781306635303896</v>
       </c>
       <c r="E8">
-        <v>7.611527350899245</v>
+        <v>11.07774183319953</v>
       </c>
       <c r="F8">
-        <v>32.93243127711273</v>
+        <v>22.98145538454083</v>
       </c>
       <c r="G8">
-        <v>43.93413389736919</v>
+        <v>31.37231059343773</v>
       </c>
       <c r="H8">
-        <v>13.85318408438256</v>
+        <v>1.875625903074312</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.619137795876578</v>
       </c>
       <c r="J8">
-        <v>6.258739094879013</v>
+        <v>10.85248347654685</v>
       </c>
       <c r="K8">
-        <v>19.81447818380505</v>
+        <v>20.01836110626105</v>
       </c>
       <c r="L8">
-        <v>5.144303692372207</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>16.18167805276741</v>
+        <v>23.71661007155209</v>
       </c>
       <c r="N8">
-        <v>13.63864004796482</v>
+        <v>6.860475181983854</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.707725564820853</v>
+        <v>10.78674529000963</v>
       </c>
       <c r="D9">
-        <v>3.984924385047962</v>
+        <v>4.921316509436227</v>
       </c>
       <c r="E9">
-        <v>7.687692380005949</v>
+        <v>12.42918572128749</v>
       </c>
       <c r="F9">
-        <v>34.54719239251736</v>
+        <v>24.5184794307887</v>
       </c>
       <c r="G9">
-        <v>46.73045380976141</v>
+        <v>33.65526323282772</v>
       </c>
       <c r="H9">
-        <v>14.08890117827641</v>
+        <v>1.893107450092627</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.920584288722465</v>
       </c>
       <c r="J9">
-        <v>6.141701130147551</v>
+        <v>11.01292079060783</v>
       </c>
       <c r="K9">
-        <v>22.58868522697124</v>
+        <v>21.08746825082633</v>
       </c>
       <c r="L9">
-        <v>5.084091685160566</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>17.83479136066483</v>
+        <v>27.38393813201046</v>
       </c>
       <c r="N9">
-        <v>12.99992669648664</v>
+        <v>7.444136680273353</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.21353421267431</v>
+        <v>11.54066695434254</v>
       </c>
       <c r="D10">
-        <v>4.141901352238789</v>
+        <v>5.05014956265161</v>
       </c>
       <c r="E10">
-        <v>7.760387937972096</v>
+        <v>13.1297897651155</v>
       </c>
       <c r="F10">
-        <v>35.87064104988104</v>
+        <v>25.4173159323041</v>
       </c>
       <c r="G10">
-        <v>48.96944718424371</v>
+        <v>34.9106354028931</v>
       </c>
       <c r="H10">
-        <v>14.32623388742919</v>
+        <v>2.325309237826676</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.316000749191103</v>
       </c>
       <c r="J10">
-        <v>6.065645299392345</v>
+        <v>11.06875042055074</v>
       </c>
       <c r="K10">
-        <v>24.57752940990156</v>
+        <v>21.65293778890257</v>
       </c>
       <c r="L10">
-        <v>5.042732143597009</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>19.00466613637266</v>
+        <v>29.79839551733459</v>
       </c>
       <c r="N10">
-        <v>12.53835142470452</v>
+        <v>7.728111681396592</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.44404772560007</v>
+        <v>11.07599998956955</v>
       </c>
       <c r="D11">
-        <v>4.212620781917697</v>
+        <v>5.382140616432109</v>
       </c>
       <c r="E11">
-        <v>7.797324897366839</v>
+        <v>11.72602738501237</v>
       </c>
       <c r="F11">
-        <v>36.50361660384542</v>
+        <v>23.83383353500558</v>
       </c>
       <c r="G11">
-        <v>50.02869001303078</v>
+        <v>31.93335522989628</v>
       </c>
       <c r="H11">
-        <v>14.44961912365156</v>
+        <v>3.134202293410881</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.419651753038035</v>
       </c>
       <c r="J11">
-        <v>6.03331539497388</v>
+        <v>10.39621128716272</v>
       </c>
       <c r="K11">
-        <v>25.49693346749356</v>
+        <v>20.17079087905987</v>
       </c>
       <c r="L11">
-        <v>5.024499718463164</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>19.52591548227402</v>
+        <v>30.80753760831645</v>
       </c>
       <c r="N11">
-        <v>12.3291721491163</v>
+        <v>6.866128150672733</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.5313661143667</v>
+        <v>10.57439243792264</v>
       </c>
       <c r="D12">
-        <v>4.239289058144646</v>
+        <v>5.658982876382658</v>
       </c>
       <c r="E12">
-        <v>7.811888060946461</v>
+        <v>10.46818615925534</v>
       </c>
       <c r="F12">
-        <v>36.74785861889349</v>
+        <v>22.35527981242794</v>
       </c>
       <c r="G12">
-        <v>50.43573139818982</v>
+        <v>29.24440926032051</v>
       </c>
       <c r="H12">
-        <v>14.49868395987534</v>
+        <v>4.324961486843628</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.429414317485969</v>
       </c>
       <c r="J12">
-        <v>6.021410262998561</v>
+        <v>9.84320239056863</v>
       </c>
       <c r="K12">
-        <v>25.83888913606777</v>
+        <v>18.86276979937106</v>
       </c>
       <c r="L12">
-        <v>5.017675604060896</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>19.72166083210147</v>
+        <v>31.17093284346099</v>
       </c>
       <c r="N12">
-        <v>12.24999601459579</v>
+        <v>6.157818000765476</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.51255968758732</v>
+        <v>9.959944134493652</v>
       </c>
       <c r="D13">
-        <v>4.233550702537082</v>
+        <v>5.913755042278495</v>
       </c>
       <c r="E13">
-        <v>7.808725679787259</v>
+        <v>9.22850630682791</v>
       </c>
       <c r="F13">
-        <v>36.69505267765346</v>
+        <v>20.76771003807637</v>
       </c>
       <c r="G13">
-        <v>50.34780242121709</v>
+        <v>26.43495582767819</v>
       </c>
       <c r="H13">
-        <v>14.48801081825201</v>
+        <v>5.600321191033522</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.369377969630596</v>
       </c>
       <c r="J13">
-        <v>6.023959039215094</v>
+        <v>9.324527695082525</v>
       </c>
       <c r="K13">
-        <v>25.76551622272492</v>
+        <v>17.53322507048999</v>
       </c>
       <c r="L13">
-        <v>5.019141796689696</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>19.67957731313566</v>
+        <v>31.07077819797136</v>
       </c>
       <c r="N13">
-        <v>12.26704776734634</v>
+        <v>5.548568527328804</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.4512310468064</v>
+        <v>9.466743493413816</v>
       </c>
       <c r="D14">
-        <v>4.214817096224623</v>
+        <v>6.086294891643467</v>
       </c>
       <c r="E14">
-        <v>7.798511357215626</v>
+        <v>8.392406107789139</v>
       </c>
       <c r="F14">
-        <v>36.52361875899332</v>
+        <v>19.58733531387197</v>
       </c>
       <c r="G14">
-        <v>50.06205815049144</v>
+        <v>24.38131879183021</v>
       </c>
       <c r="H14">
-        <v>14.4536080672858</v>
+        <v>6.523738374615926</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.297039345881356</v>
       </c>
       <c r="J14">
-        <v>6.032329118332756</v>
+        <v>8.978741294663232</v>
       </c>
       <c r="K14">
-        <v>25.5251897795725</v>
+        <v>16.5864370321071</v>
       </c>
       <c r="L14">
-        <v>5.023936710594088</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>19.5420527372874</v>
+        <v>30.78988921981223</v>
       </c>
       <c r="N14">
-        <v>12.32265804700607</v>
+        <v>5.20412691750378</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.41366835549459</v>
+        <v>9.310822000069082</v>
       </c>
       <c r="D15">
-        <v>4.203327359160963</v>
+        <v>6.122891914051012</v>
       </c>
       <c r="E15">
-        <v>7.792330401991125</v>
+        <v>8.182272205122509</v>
       </c>
       <c r="F15">
-        <v>36.41920606892729</v>
+        <v>19.26174072497626</v>
       </c>
       <c r="G15">
-        <v>49.88780658811206</v>
+        <v>23.82959129862859</v>
       </c>
       <c r="H15">
-        <v>14.43284406143595</v>
+        <v>6.732821629056892</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.264545016723054</v>
       </c>
       <c r="J15">
-        <v>6.037500347828026</v>
+        <v>8.897594821591197</v>
       </c>
       <c r="K15">
-        <v>25.37717975041141</v>
+        <v>16.33839565868635</v>
       </c>
       <c r="L15">
-        <v>5.026884054664134</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>19.45759978608513</v>
+        <v>30.62083071819476</v>
       </c>
       <c r="N15">
-        <v>12.35672310943405</v>
+        <v>5.131205800894055</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.19847502197411</v>
+        <v>9.061270302628863</v>
       </c>
       <c r="D16">
-        <v>4.137264665802917</v>
+        <v>6.019455617622132</v>
       </c>
       <c r="E16">
-        <v>7.758053510417034</v>
+        <v>8.057236715797265</v>
       </c>
       <c r="F16">
-        <v>35.82990520827915</v>
+        <v>19.1051143795516</v>
       </c>
       <c r="G16">
-        <v>48.90104791796084</v>
+        <v>23.69479415074768</v>
       </c>
       <c r="H16">
-        <v>14.31849121199548</v>
+        <v>6.450920629483117</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.10952431628793</v>
       </c>
       <c r="J16">
-        <v>6.067804712814767</v>
+        <v>8.970948016995074</v>
       </c>
       <c r="K16">
-        <v>24.51656785118231</v>
+        <v>16.31569004641696</v>
       </c>
       <c r="L16">
-        <v>5.04393508829772</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>18.97037477491511</v>
+        <v>29.65078494966542</v>
       </c>
       <c r="N16">
-        <v>12.55203120569182</v>
+        <v>5.111194852123293</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.06654162371677</v>
+        <v>9.138523217409173</v>
       </c>
       <c r="D17">
-        <v>4.096550955861582</v>
+        <v>5.844739387284585</v>
       </c>
       <c r="E17">
-        <v>7.738030028580904</v>
+        <v>8.401122570820752</v>
       </c>
       <c r="F17">
-        <v>35.4763768396608</v>
+        <v>19.62681817119566</v>
       </c>
       <c r="G17">
-        <v>48.30617229942348</v>
+        <v>24.70432143783228</v>
       </c>
       <c r="H17">
-        <v>14.25237645359739</v>
+        <v>5.692226353869137</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.028817938218515</v>
       </c>
       <c r="J17">
-        <v>6.086984019317007</v>
+        <v>9.207216044329231</v>
       </c>
       <c r="K17">
-        <v>23.97740023028165</v>
+        <v>16.80078655843428</v>
       </c>
       <c r="L17">
-        <v>5.05454197701967</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>18.66862015400338</v>
+        <v>29.04630205901124</v>
       </c>
       <c r="N17">
-        <v>12.67199609653991</v>
+        <v>5.26309247613819</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.990697683607847</v>
+        <v>9.538104504308</v>
       </c>
       <c r="D18">
-        <v>4.07306913068192</v>
+        <v>5.593892028318901</v>
       </c>
       <c r="E18">
-        <v>7.726875824164445</v>
+        <v>9.280151386658474</v>
       </c>
       <c r="F18">
-        <v>35.27594143905953</v>
+        <v>20.82410439838366</v>
       </c>
       <c r="G18">
-        <v>47.96784130996369</v>
+        <v>26.87731866618304</v>
       </c>
       <c r="H18">
-        <v>14.21579296734609</v>
+        <v>4.471061889088303</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.003768539411821</v>
       </c>
       <c r="J18">
-        <v>6.09822818811592</v>
+        <v>9.62889812403154</v>
       </c>
       <c r="K18">
-        <v>23.6631190629236</v>
+        <v>17.82266441532877</v>
       </c>
       <c r="L18">
-        <v>5.060697812807508</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>18.49403210148665</v>
+        <v>28.70280520909935</v>
       </c>
       <c r="N18">
-        <v>12.74107656419312</v>
+        <v>5.669768871154051</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.965026377747426</v>
+        <v>10.12532692300645</v>
       </c>
       <c r="D19">
-        <v>4.06510795044602</v>
+        <v>5.333985505661087</v>
       </c>
       <c r="E19">
-        <v>7.723160923139802</v>
+        <v>10.58776323013277</v>
       </c>
       <c r="F19">
-        <v>35.20857356833785</v>
+        <v>22.38715435416251</v>
       </c>
       <c r="G19">
-        <v>47.85394367555092</v>
+        <v>29.67596645204005</v>
       </c>
       <c r="H19">
-        <v>14.20365070556138</v>
+        <v>3.114209581319252</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.037074334287869</v>
       </c>
       <c r="J19">
-        <v>6.102071487268266</v>
+        <v>10.15528087707866</v>
       </c>
       <c r="K19">
-        <v>23.56610965532046</v>
+        <v>19.14605636082704</v>
       </c>
       <c r="L19">
-        <v>5.062791631209252</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>18.43474579028209</v>
+        <v>28.60013685095553</v>
       </c>
       <c r="N19">
-        <v>12.76448200791726</v>
+        <v>6.352101694815701</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.08058222038634</v>
+        <v>11.26207004360897</v>
       </c>
       <c r="D20">
-        <v>4.100891760318727</v>
+        <v>5.034687164894831</v>
       </c>
       <c r="E20">
-        <v>7.740123876909842</v>
+        <v>12.91074267664257</v>
       </c>
       <c r="F20">
-        <v>35.51370923510733</v>
+        <v>25.02610096972042</v>
       </c>
       <c r="G20">
-        <v>48.36910146132977</v>
+        <v>34.3046153559062</v>
       </c>
       <c r="H20">
-        <v>14.25926414917685</v>
+        <v>2.206620436837294</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.218877822569238</v>
       </c>
       <c r="J20">
-        <v>6.084920254374553</v>
+        <v>10.99828838596396</v>
       </c>
       <c r="K20">
-        <v>24.03522571025857</v>
+        <v>21.36320823383281</v>
       </c>
       <c r="L20">
-        <v>5.053407185184598</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>18.70084930216985</v>
+        <v>29.18062576323204</v>
       </c>
       <c r="N20">
-        <v>12.65921791166702</v>
+        <v>7.652795625448709</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.46924419823227</v>
+        <v>11.96995100491155</v>
       </c>
       <c r="D21">
-        <v>4.220322726259537</v>
+        <v>5.086299725089803</v>
       </c>
       <c r="E21">
-        <v>7.80149575675103</v>
+        <v>13.74354566235602</v>
       </c>
       <c r="F21">
-        <v>36.5738487431208</v>
+        <v>26.10169202341691</v>
       </c>
       <c r="G21">
-        <v>50.14582645582654</v>
+        <v>35.95393151855228</v>
       </c>
       <c r="H21">
-        <v>14.46364843582919</v>
+        <v>2.554919269341283</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.529689333206954</v>
       </c>
       <c r="J21">
-        <v>6.029861365769882</v>
+        <v>11.18350150744719</v>
       </c>
       <c r="K21">
-        <v>25.59594657146637</v>
+        <v>22.12896924622306</v>
       </c>
       <c r="L21">
-        <v>5.022526184118449</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>19.58249196363519</v>
+        <v>30.95352408835829</v>
       </c>
       <c r="N21">
-        <v>12.30632366101193</v>
+        <v>8.049103655061151</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.72341330467464</v>
+        <v>12.40129196406999</v>
       </c>
       <c r="D22">
-        <v>4.297723177980679</v>
+        <v>5.126368953593205</v>
       </c>
       <c r="E22">
-        <v>7.844972948390537</v>
+        <v>14.17950791480527</v>
       </c>
       <c r="F22">
-        <v>37.29328058431398</v>
+        <v>26.74756325916988</v>
       </c>
       <c r="G22">
-        <v>51.34164507575202</v>
+        <v>36.92817476670798</v>
       </c>
       <c r="H22">
-        <v>14.61093389635587</v>
+        <v>2.773035765722222</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.723653262416066</v>
       </c>
       <c r="J22">
-        <v>5.995850788542893</v>
+        <v>11.29024579198004</v>
       </c>
       <c r="K22">
-        <v>26.57989321738939</v>
+        <v>22.58074826607911</v>
       </c>
       <c r="L22">
-        <v>5.002808732202626</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>20.14912295257849</v>
+        <v>32.06253414588435</v>
       </c>
       <c r="N22">
-        <v>12.07585163204474</v>
+        <v>8.239732865807319</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.58775186796466</v>
+        <v>12.20207796685384</v>
       </c>
       <c r="D23">
-        <v>4.256476412050332</v>
+        <v>5.098691906163999</v>
       </c>
       <c r="E23">
-        <v>7.821453390591343</v>
+        <v>13.95910842553696</v>
       </c>
       <c r="F23">
-        <v>36.90683716821658</v>
+        <v>26.45492908984182</v>
       </c>
       <c r="G23">
-        <v>50.70020991456777</v>
+        <v>36.50093769786628</v>
       </c>
       <c r="H23">
-        <v>14.53102861478867</v>
+        <v>2.658703414868442</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.61835746882352</v>
       </c>
       <c r="J23">
-        <v>6.013818145936492</v>
+        <v>11.25164919574666</v>
       </c>
       <c r="K23">
-        <v>26.0579905323394</v>
+        <v>22.38844645303524</v>
       </c>
       <c r="L23">
-        <v>5.013291017772005</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>19.84759250485264</v>
+        <v>31.47581624692755</v>
       </c>
       <c r="N23">
-        <v>12.19887186428254</v>
+        <v>8.1370934003456</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.07423444432566</v>
+        <v>11.36893141947757</v>
       </c>
       <c r="D24">
-        <v>4.098929515168358</v>
+        <v>5.002231298675918</v>
       </c>
       <c r="E24">
-        <v>7.739176135836989</v>
+        <v>13.07660748240218</v>
       </c>
       <c r="F24">
-        <v>35.49682250525943</v>
+        <v>25.27030148275723</v>
       </c>
       <c r="G24">
-        <v>48.34063975812629</v>
+        <v>34.74459673882163</v>
       </c>
       <c r="H24">
-        <v>14.25614578727257</v>
+        <v>2.215759853594192</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.216943837896946</v>
       </c>
       <c r="J24">
-        <v>6.085852605162613</v>
+        <v>11.08733560598818</v>
       </c>
       <c r="K24">
-        <v>24.0090962355722</v>
+        <v>21.58283492058231</v>
       </c>
       <c r="L24">
-        <v>5.05392004428689</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>18.6862819415217</v>
+        <v>29.15484949246833</v>
       </c>
       <c r="N24">
-        <v>12.66499457729668</v>
+        <v>7.74071022426541</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,42 +1649,48 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.522101873472613</v>
+        <v>10.40206076610636</v>
       </c>
       <c r="D25">
-        <v>3.926600013912214</v>
+        <v>4.893733202245921</v>
       </c>
       <c r="E25">
-        <v>7.664224215706465</v>
+        <v>12.05988836116455</v>
       </c>
       <c r="F25">
-        <v>34.08664900634231</v>
+        <v>24.01273874029402</v>
       </c>
       <c r="G25">
-        <v>45.94170372544573</v>
+        <v>32.87894131290543</v>
       </c>
       <c r="H25">
-        <v>14.01436480431334</v>
+        <v>1.721390102507793</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.772151624076547</v>
       </c>
       <c r="J25">
-        <v>6.171653336387926</v>
+        <v>10.93555122463178</v>
       </c>
       <c r="K25">
-        <v>21.8631427928766</v>
+        <v>20.71927881051178</v>
       </c>
       <c r="L25">
-        <v>5.099861729619741</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>17.394897468306</v>
+        <v>26.43947461963387</v>
       </c>
       <c r="N25">
-        <v>13.17109305034951</v>
+        <v>7.292705552485258</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.716924951276685</v>
+        <v>8.227352002510315</v>
       </c>
       <c r="D2">
-        <v>4.795060472303154</v>
+        <v>4.972625216046285</v>
       </c>
       <c r="E2">
-        <v>11.28711623248534</v>
+        <v>10.83454085543961</v>
       </c>
       <c r="F2">
-        <v>23.24970458592731</v>
+        <v>21.14663689833889</v>
       </c>
       <c r="G2">
-        <v>31.78947086492718</v>
+        <v>27.56744714916287</v>
       </c>
       <c r="H2">
-        <v>1.780040213233636</v>
+        <v>1.713308247980195</v>
       </c>
       <c r="I2">
-        <v>2.520370897006369</v>
+        <v>2.513169828529639</v>
       </c>
       <c r="J2">
-        <v>10.89139302636397</v>
+        <v>10.50711650767268</v>
       </c>
       <c r="K2">
-        <v>20.21907822885823</v>
+        <v>18.2095442926997</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>15.20832375738419</v>
       </c>
       <c r="M2">
-        <v>24.2563974260849</v>
+        <v>11.93076454475297</v>
       </c>
       <c r="N2">
-        <v>6.942431083699824</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>24.27120942056628</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.093413465903343</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.168646606128284</v>
+        <v>7.783513408452976</v>
       </c>
       <c r="D3">
-        <v>4.734761409717671</v>
+        <v>4.858367119665637</v>
       </c>
       <c r="E3">
-        <v>10.71236222409061</v>
+        <v>10.31492876398383</v>
       </c>
       <c r="F3">
-        <v>22.66750551949813</v>
+        <v>20.78595479712758</v>
       </c>
       <c r="G3">
-        <v>30.92913043269883</v>
+        <v>27.14439966857138</v>
       </c>
       <c r="H3">
-        <v>2.053949583555524</v>
+        <v>1.956199066011247</v>
       </c>
       <c r="I3">
-        <v>2.76884149481662</v>
+        <v>2.646083722714076</v>
       </c>
       <c r="J3">
-        <v>10.84539371475475</v>
+        <v>10.48841570715282</v>
       </c>
       <c r="K3">
-        <v>19.81186973471277</v>
+        <v>17.99604912694429</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.18552549553532</v>
       </c>
       <c r="M3">
-        <v>22.65842398554159</v>
+        <v>11.61370270550454</v>
       </c>
       <c r="N3">
-        <v>6.697099130073888</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>22.68531726530536</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.857776561933217</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.811990179656428</v>
+        <v>7.494354308229892</v>
       </c>
       <c r="D4">
-        <v>4.696928743174827</v>
+        <v>4.787106096038608</v>
       </c>
       <c r="E4">
-        <v>10.34238597295819</v>
+        <v>9.980338334478516</v>
       </c>
       <c r="F4">
-        <v>22.315059044584</v>
+        <v>20.57111515052146</v>
       </c>
       <c r="G4">
-        <v>30.40682614137342</v>
+        <v>26.9006830103342</v>
       </c>
       <c r="H4">
-        <v>2.227754527327298</v>
+        <v>2.110506870062559</v>
       </c>
       <c r="I4">
-        <v>2.927447319793729</v>
+        <v>2.781000807404416</v>
       </c>
       <c r="J4">
-        <v>10.82146350108337</v>
+        <v>10.47824070308958</v>
       </c>
       <c r="K4">
-        <v>19.56200762404938</v>
+        <v>17.86550216421925</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.16633548761021</v>
       </c>
       <c r="M4">
-        <v>21.61884761527741</v>
+        <v>11.43786276765203</v>
       </c>
       <c r="N4">
-        <v>6.541855346408314</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>21.65339020838499</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.709089335589686</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.651546461578313</v>
+        <v>7.363295816434165</v>
       </c>
       <c r="D5">
-        <v>4.682820624594456</v>
+        <v>4.759613534812863</v>
       </c>
       <c r="E5">
-        <v>10.18377188302318</v>
+        <v>9.836883648969261</v>
       </c>
       <c r="F5">
-        <v>22.15717207764012</v>
+        <v>20.47135291428231</v>
       </c>
       <c r="G5">
-        <v>30.1675145876842</v>
+        <v>26.78035383757258</v>
       </c>
       <c r="H5">
-        <v>2.300575633398588</v>
+        <v>2.175201516167018</v>
       </c>
       <c r="I5">
-        <v>2.996776262120491</v>
+        <v>2.841048125506275</v>
       </c>
       <c r="J5">
-        <v>10.80768866076402</v>
+        <v>10.47002850635177</v>
       </c>
       <c r="K5">
-        <v>19.44623667509284</v>
+        <v>17.80026665981154</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.14721911379159</v>
       </c>
       <c r="M5">
-        <v>21.1802512938453</v>
+        <v>11.362716398609</v>
       </c>
       <c r="N5">
-        <v>6.47785673706346</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>21.2180124582808</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.647890526689479</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.612271230772915</v>
+        <v>7.330269418816155</v>
       </c>
       <c r="D6">
-        <v>4.682323506911602</v>
+        <v>4.757251552717633</v>
       </c>
       <c r="E6">
-        <v>10.15275786310322</v>
+        <v>9.808848926488029</v>
       </c>
       <c r="F6">
-        <v>22.11192376682686</v>
+        <v>20.43793832805547</v>
       </c>
       <c r="G6">
-        <v>30.093502844424</v>
+        <v>26.73018982362549</v>
       </c>
       <c r="H6">
-        <v>2.313426921237636</v>
+        <v>2.186621029707167</v>
       </c>
       <c r="I6">
-        <v>3.012436127394128</v>
+        <v>2.855789770354761</v>
       </c>
       <c r="J6">
-        <v>10.79927500988382</v>
+        <v>10.46333705114467</v>
       </c>
       <c r="K6">
-        <v>19.40983699329589</v>
+        <v>17.77457705417063</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.13178990152656</v>
       </c>
       <c r="M6">
-        <v>21.10627189304582</v>
+        <v>11.34016796266777</v>
       </c>
       <c r="N6">
-        <v>6.467632092875155</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>21.14460246868324</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.638102662044433</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.776810647425478</v>
+        <v>7.47117718427313</v>
       </c>
       <c r="D7">
-        <v>4.701837490140496</v>
+        <v>4.796494206570393</v>
       </c>
       <c r="E7">
-        <v>10.3283977043724</v>
+        <v>9.969991861162724</v>
       </c>
       <c r="F7">
-        <v>22.2611193508441</v>
+        <v>20.4959588326396</v>
       </c>
       <c r="G7">
-        <v>30.31046975532635</v>
+        <v>26.87519838969667</v>
       </c>
       <c r="H7">
-        <v>2.230540184068675</v>
+        <v>2.113613138246495</v>
       </c>
       <c r="I7">
-        <v>2.939206914787108</v>
+        <v>2.794972544249634</v>
       </c>
       <c r="J7">
-        <v>10.80440768010567</v>
+        <v>10.41769370738445</v>
       </c>
       <c r="K7">
-        <v>19.51379163419055</v>
+        <v>17.80617127393494</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.11895672761811</v>
       </c>
       <c r="M7">
-        <v>21.61229484441199</v>
+        <v>11.39512814375704</v>
       </c>
       <c r="N7">
-        <v>6.542269926202109</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>21.64661275118469</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.70853542268418</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.49112533137613</v>
+        <v>8.066308883584547</v>
       </c>
       <c r="D8">
-        <v>4.781306635303896</v>
+        <v>4.953961843681827</v>
       </c>
       <c r="E8">
-        <v>11.07774183319953</v>
+        <v>10.65248677633415</v>
       </c>
       <c r="F8">
-        <v>22.98145538454083</v>
+        <v>20.87184780475451</v>
       </c>
       <c r="G8">
-        <v>31.37231059343773</v>
+        <v>27.5047369358178</v>
       </c>
       <c r="H8">
-        <v>1.875625903074312</v>
+        <v>1.799965332158536</v>
       </c>
       <c r="I8">
-        <v>2.619137795876578</v>
+        <v>2.525575746274233</v>
       </c>
       <c r="J8">
-        <v>10.85248347654685</v>
+        <v>10.33147390158259</v>
       </c>
       <c r="K8">
-        <v>20.01836110626105</v>
+        <v>18.02508374612885</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>15.11597540771083</v>
       </c>
       <c r="M8">
-        <v>23.71661007155209</v>
+        <v>11.73440152710562</v>
       </c>
       <c r="N8">
-        <v>6.860475181983854</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>23.73460331387219</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.011731139162988</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.78674529000963</v>
+        <v>9.120638463159375</v>
       </c>
       <c r="D9">
-        <v>4.921316509436227</v>
+        <v>5.228490495467632</v>
       </c>
       <c r="E9">
-        <v>12.42918572128749</v>
+        <v>11.87467725226072</v>
       </c>
       <c r="F9">
-        <v>24.5184794307887</v>
+        <v>21.84419301136525</v>
       </c>
       <c r="G9">
-        <v>33.65526323282772</v>
+        <v>28.79782310481516</v>
       </c>
       <c r="H9">
-        <v>1.893107450092627</v>
+        <v>1.893043580139891</v>
       </c>
       <c r="I9">
-        <v>2.920584288722465</v>
+        <v>2.931321954111049</v>
       </c>
       <c r="J9">
-        <v>11.01292079060783</v>
+        <v>10.36360364795504</v>
       </c>
       <c r="K9">
-        <v>21.08746825082633</v>
+        <v>18.59559076044475</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15.17619015977217</v>
       </c>
       <c r="M9">
-        <v>27.38393813201046</v>
+        <v>12.63941296348552</v>
       </c>
       <c r="N9">
-        <v>7.444136680273353</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>27.3720910815037</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.573885546174604</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.54066695434254</v>
+        <v>9.778370160828164</v>
       </c>
       <c r="D10">
-        <v>5.05014956265161</v>
+        <v>5.477386650756793</v>
       </c>
       <c r="E10">
-        <v>13.1297897651155</v>
+        <v>12.50887847211768</v>
       </c>
       <c r="F10">
-        <v>25.4173159323041</v>
+        <v>22.24466008499064</v>
       </c>
       <c r="G10">
-        <v>34.9106354028931</v>
+        <v>29.78837828286811</v>
       </c>
       <c r="H10">
-        <v>2.325309237826676</v>
+        <v>2.271681888423185</v>
       </c>
       <c r="I10">
-        <v>3.316000749191103</v>
+        <v>3.264296324103825</v>
       </c>
       <c r="J10">
-        <v>11.06875042055074</v>
+        <v>10.07852504461086</v>
       </c>
       <c r="K10">
-        <v>21.65293778890257</v>
+        <v>18.75217663537879</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>15.00737419068706</v>
       </c>
       <c r="M10">
-        <v>29.79839551733459</v>
+        <v>13.15771693970207</v>
       </c>
       <c r="N10">
-        <v>7.728111681396592</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>29.76365930845666</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.83806895835376</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.07599998956955</v>
+        <v>9.547573294314155</v>
       </c>
       <c r="D11">
-        <v>5.382140616432109</v>
+        <v>5.911345826975753</v>
       </c>
       <c r="E11">
-        <v>11.72602738501237</v>
+        <v>11.18122576624191</v>
       </c>
       <c r="F11">
-        <v>23.83383353500558</v>
+        <v>20.5513541883713</v>
       </c>
       <c r="G11">
-        <v>31.93335522989628</v>
+        <v>27.84163439538077</v>
       </c>
       <c r="H11">
-        <v>3.134202293410881</v>
+        <v>3.083698714873417</v>
       </c>
       <c r="I11">
-        <v>3.419651753038035</v>
+        <v>3.353061675154068</v>
       </c>
       <c r="J11">
-        <v>10.39621128716272</v>
+        <v>9.07471857712672</v>
       </c>
       <c r="K11">
-        <v>20.17079087905987</v>
+        <v>17.30337510937275</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.86515652652228</v>
       </c>
       <c r="M11">
-        <v>30.80753760831645</v>
+        <v>12.16736186286498</v>
       </c>
       <c r="N11">
-        <v>6.866128150672733</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>30.76665784558594</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.941525709086529</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.57439243792264</v>
+        <v>9.234522263094103</v>
       </c>
       <c r="D12">
-        <v>5.658982876382658</v>
+        <v>6.224370953217524</v>
       </c>
       <c r="E12">
-        <v>10.46818615925534</v>
+        <v>9.995563809155668</v>
       </c>
       <c r="F12">
-        <v>22.35527981242794</v>
+        <v>19.1716344241854</v>
       </c>
       <c r="G12">
-        <v>29.24440926032051</v>
+        <v>25.86359555626504</v>
       </c>
       <c r="H12">
-        <v>4.324961486843628</v>
+        <v>4.288752796272136</v>
       </c>
       <c r="I12">
-        <v>3.429414317485969</v>
+        <v>3.361867192663844</v>
       </c>
       <c r="J12">
-        <v>9.84320239056863</v>
+        <v>8.517675111120667</v>
       </c>
       <c r="K12">
-        <v>18.86276979937106</v>
+        <v>16.17210175092091</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.04727920349352</v>
       </c>
       <c r="M12">
-        <v>31.17093284346099</v>
+        <v>11.30118062634566</v>
       </c>
       <c r="N12">
-        <v>6.157818000765476</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>31.13006530150803</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.208318241864306</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.959944134493652</v>
+        <v>8.78040492305921</v>
       </c>
       <c r="D13">
-        <v>5.913755042278495</v>
+        <v>6.455498847087466</v>
       </c>
       <c r="E13">
-        <v>9.22850630682791</v>
+        <v>8.831007363927473</v>
       </c>
       <c r="F13">
-        <v>20.76771003807637</v>
+        <v>17.92320089927754</v>
       </c>
       <c r="G13">
-        <v>26.43495582767819</v>
+        <v>23.44386291071993</v>
       </c>
       <c r="H13">
-        <v>5.600321191033522</v>
+        <v>5.577700268611808</v>
       </c>
       <c r="I13">
-        <v>3.369377969630596</v>
+        <v>3.314229465254569</v>
       </c>
       <c r="J13">
-        <v>9.324527695082525</v>
+        <v>8.271884885589682</v>
       </c>
       <c r="K13">
-        <v>17.53322507048999</v>
+        <v>15.18817679718279</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.39408707139477</v>
       </c>
       <c r="M13">
-        <v>31.07077819797136</v>
+        <v>10.45848957426682</v>
       </c>
       <c r="N13">
-        <v>5.548568527328804</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>31.03521612509868</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.582037288801995</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.466743493413816</v>
+        <v>8.390432144680924</v>
       </c>
       <c r="D14">
-        <v>6.086294891643467</v>
+        <v>6.583083598888086</v>
       </c>
       <c r="E14">
-        <v>8.392406107789139</v>
+        <v>8.052857936935661</v>
       </c>
       <c r="F14">
-        <v>19.58733531387197</v>
+        <v>17.08902983821751</v>
       </c>
       <c r="G14">
-        <v>24.38131879183021</v>
+        <v>21.5347989671415</v>
       </c>
       <c r="H14">
-        <v>6.523738374615926</v>
+        <v>6.509127143951551</v>
       </c>
       <c r="I14">
-        <v>3.297039345881356</v>
+        <v>3.256740817976377</v>
       </c>
       <c r="J14">
-        <v>8.978741294663232</v>
+        <v>8.209453211934111</v>
       </c>
       <c r="K14">
-        <v>16.5864370321071</v>
+        <v>14.55662058171876</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.99901300700923</v>
       </c>
       <c r="M14">
-        <v>30.78988921981223</v>
+        <v>9.872860565875746</v>
       </c>
       <c r="N14">
-        <v>5.20412691750378</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>30.76029038592608</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.229381161981363</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.310822000069082</v>
+        <v>8.257065507359464</v>
       </c>
       <c r="D15">
-        <v>6.122891914051012</v>
+        <v>6.597735931399981</v>
       </c>
       <c r="E15">
-        <v>8.182272205122509</v>
+        <v>7.858768961017779</v>
       </c>
       <c r="F15">
-        <v>19.26174072497626</v>
+        <v>16.89483839447494</v>
       </c>
       <c r="G15">
-        <v>23.82959129862859</v>
+        <v>20.96880156608135</v>
       </c>
       <c r="H15">
-        <v>6.732821629056892</v>
+        <v>6.720655524747846</v>
       </c>
       <c r="I15">
-        <v>3.264545016723054</v>
+        <v>3.231347582053971</v>
       </c>
       <c r="J15">
-        <v>8.897594821591197</v>
+        <v>8.235496134686329</v>
       </c>
       <c r="K15">
-        <v>16.33839565868635</v>
+        <v>14.41673776930601</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.92007646549567</v>
       </c>
       <c r="M15">
-        <v>30.62083071819476</v>
+        <v>9.725123337701422</v>
       </c>
       <c r="N15">
-        <v>5.131205800894055</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>30.59384309183194</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.156456061087763</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.061270302628863</v>
+        <v>7.97516819338282</v>
       </c>
       <c r="D16">
-        <v>6.019455617622132</v>
+        <v>6.406100751033478</v>
       </c>
       <c r="E16">
-        <v>8.057236715797265</v>
+        <v>7.741807853054941</v>
       </c>
       <c r="F16">
-        <v>19.1051143795516</v>
+        <v>17.11299269934499</v>
       </c>
       <c r="G16">
-        <v>23.69479415074768</v>
+        <v>20.4264257497102</v>
       </c>
       <c r="H16">
-        <v>6.450920629483117</v>
+        <v>6.446478730639027</v>
       </c>
       <c r="I16">
-        <v>3.10952431628793</v>
+        <v>3.105103081760517</v>
       </c>
       <c r="J16">
-        <v>8.970948016995074</v>
+        <v>8.642255641456906</v>
       </c>
       <c r="K16">
-        <v>16.31569004641696</v>
+        <v>14.63615323832616</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.14143994216644</v>
       </c>
       <c r="M16">
-        <v>29.65078494966542</v>
+        <v>9.762712149679951</v>
       </c>
       <c r="N16">
-        <v>5.111194852123293</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>29.63454949302725</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.155374941528314</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.138523217409173</v>
+        <v>7.978034862182132</v>
       </c>
       <c r="D17">
-        <v>5.844739387284585</v>
+        <v>6.197473612219132</v>
       </c>
       <c r="E17">
-        <v>8.401122570820752</v>
+        <v>8.058576852803593</v>
       </c>
       <c r="F17">
-        <v>19.62681817119566</v>
+        <v>17.69975462625933</v>
       </c>
       <c r="G17">
-        <v>24.70432143783228</v>
+        <v>21.11828046874264</v>
       </c>
       <c r="H17">
-        <v>5.692226353869137</v>
+        <v>5.691112494964903</v>
       </c>
       <c r="I17">
-        <v>3.028817938218515</v>
+        <v>3.038192140571079</v>
       </c>
       <c r="J17">
-        <v>9.207216044329231</v>
+        <v>8.977158856593109</v>
       </c>
       <c r="K17">
-        <v>16.80078655843428</v>
+        <v>15.12198418236943</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.52082679739382</v>
       </c>
       <c r="M17">
-        <v>29.04630205901124</v>
+        <v>10.08354918387209</v>
       </c>
       <c r="N17">
-        <v>5.26309247613819</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>29.03487562932335</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.325608005701612</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.538104504308</v>
+        <v>8.241802151254101</v>
       </c>
       <c r="D18">
-        <v>5.593892028318901</v>
+        <v>5.941051666936901</v>
       </c>
       <c r="E18">
-        <v>9.280151386658474</v>
+        <v>8.876256702083284</v>
       </c>
       <c r="F18">
-        <v>20.82410439838366</v>
+        <v>18.75388496774419</v>
       </c>
       <c r="G18">
-        <v>26.87731866618304</v>
+        <v>22.8714477640617</v>
       </c>
       <c r="H18">
-        <v>4.471061889088303</v>
+        <v>4.470362862225379</v>
       </c>
       <c r="I18">
-        <v>3.003768539411821</v>
+        <v>3.014461553214685</v>
       </c>
       <c r="J18">
-        <v>9.62889812403154</v>
+        <v>9.363416312011029</v>
       </c>
       <c r="K18">
-        <v>17.82266441532877</v>
+        <v>15.96728343753481</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.1412170500144</v>
       </c>
       <c r="M18">
-        <v>28.70280520909935</v>
+        <v>10.73191620659376</v>
       </c>
       <c r="N18">
-        <v>5.669768871154051</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>28.69185105078804</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.752170137019959</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.12532692300645</v>
+        <v>8.655632260952066</v>
       </c>
       <c r="D19">
-        <v>5.333985505661087</v>
+        <v>5.687119454716077</v>
       </c>
       <c r="E19">
-        <v>10.58776323013277</v>
+        <v>10.10554205981162</v>
       </c>
       <c r="F19">
-        <v>22.38715435416251</v>
+        <v>20.05095625404736</v>
       </c>
       <c r="G19">
-        <v>29.67596645204005</v>
+        <v>25.16878269062018</v>
       </c>
       <c r="H19">
-        <v>3.114209581319252</v>
+        <v>3.109305313070538</v>
       </c>
       <c r="I19">
-        <v>3.037074334287869</v>
+        <v>3.04112614148063</v>
       </c>
       <c r="J19">
-        <v>10.15528087707866</v>
+        <v>9.778216627985424</v>
       </c>
       <c r="K19">
-        <v>19.14605636082704</v>
+        <v>17.00949498994828</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.89245715276615</v>
       </c>
       <c r="M19">
-        <v>28.60013685095553</v>
+        <v>11.56279242859133</v>
       </c>
       <c r="N19">
-        <v>6.352101694815701</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>28.58611455335954</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.453136028877685</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.26207004360897</v>
+        <v>9.514003092598703</v>
       </c>
       <c r="D20">
-        <v>5.034687164894831</v>
+        <v>5.419832495397549</v>
       </c>
       <c r="E20">
-        <v>12.91074267664257</v>
+        <v>12.3036736439005</v>
       </c>
       <c r="F20">
-        <v>25.02610096972042</v>
+        <v>22.0894768562123</v>
       </c>
       <c r="G20">
-        <v>34.3046153559062</v>
+        <v>29.07769714099394</v>
       </c>
       <c r="H20">
-        <v>2.206620436837294</v>
+        <v>2.169348516443341</v>
       </c>
       <c r="I20">
-        <v>3.218877822569238</v>
+        <v>3.18944435919089</v>
       </c>
       <c r="J20">
-        <v>10.99828838596396</v>
+        <v>10.26366403624503</v>
       </c>
       <c r="K20">
-        <v>21.36320823383281</v>
+        <v>18.64793805354664</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>15.00689798904486</v>
       </c>
       <c r="M20">
-        <v>29.18062576323204</v>
+        <v>12.96831648623627</v>
       </c>
       <c r="N20">
-        <v>7.652795625448709</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>29.15328679345253</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.770230253755071</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.96995100491155</v>
+        <v>10.22780540465244</v>
       </c>
       <c r="D21">
-        <v>5.086299725089803</v>
+        <v>5.631284306214471</v>
       </c>
       <c r="E21">
-        <v>13.74354566235602</v>
+        <v>13.10706652711552</v>
       </c>
       <c r="F21">
-        <v>26.10169202341691</v>
+        <v>22.26066119011079</v>
       </c>
       <c r="G21">
-        <v>35.95393151855228</v>
+        <v>31.47460798782675</v>
       </c>
       <c r="H21">
-        <v>2.554919269341283</v>
+        <v>2.465633521796761</v>
       </c>
       <c r="I21">
-        <v>3.529689333206954</v>
+        <v>3.440426945251589</v>
       </c>
       <c r="J21">
-        <v>11.18350150744719</v>
+        <v>9.373910607532613</v>
       </c>
       <c r="K21">
-        <v>22.12896924622306</v>
+        <v>18.72687095109228</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.84776006776263</v>
       </c>
       <c r="M21">
-        <v>30.95352408835829</v>
+        <v>13.34503828444404</v>
       </c>
       <c r="N21">
-        <v>8.049103655061151</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>30.9023113581707</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.141621092768755</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.40129196406999</v>
+        <v>10.68080656467518</v>
       </c>
       <c r="D22">
-        <v>5.126368953593205</v>
+        <v>5.781682839156002</v>
       </c>
       <c r="E22">
-        <v>14.17950791480527</v>
+        <v>13.53137781449513</v>
       </c>
       <c r="F22">
-        <v>26.74756325916988</v>
+        <v>22.30728831840433</v>
       </c>
       <c r="G22">
-        <v>36.92817476670798</v>
+        <v>33.05379536225021</v>
       </c>
       <c r="H22">
-        <v>2.773035765722222</v>
+        <v>2.650815353065552</v>
       </c>
       <c r="I22">
-        <v>3.723653262416066</v>
+        <v>3.595116243103377</v>
       </c>
       <c r="J22">
-        <v>11.29024579198004</v>
+        <v>8.775356440725373</v>
       </c>
       <c r="K22">
-        <v>22.58074826607911</v>
+        <v>18.72570638360022</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.70528397057818</v>
       </c>
       <c r="M22">
-        <v>32.06253414588435</v>
+        <v>13.55522467705406</v>
       </c>
       <c r="N22">
-        <v>8.239732865807319</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>31.9958027963917</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.314919803835883</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.20207796685384</v>
+        <v>10.44985744357718</v>
       </c>
       <c r="D23">
-        <v>5.098691906163999</v>
+        <v>5.68360208552306</v>
       </c>
       <c r="E23">
-        <v>13.95910842553696</v>
+        <v>13.3109412054992</v>
       </c>
       <c r="F23">
-        <v>26.45492908984182</v>
+        <v>22.39221381958147</v>
       </c>
       <c r="G23">
-        <v>36.50093769786628</v>
+        <v>32.14836097605718</v>
       </c>
       <c r="H23">
-        <v>2.658703414868442</v>
+        <v>2.55476007782707</v>
       </c>
       <c r="I23">
-        <v>3.61835746882352</v>
+        <v>3.510173539837378</v>
       </c>
       <c r="J23">
-        <v>11.25164919574666</v>
+        <v>9.200404345022942</v>
       </c>
       <c r="K23">
-        <v>22.38844645303524</v>
+        <v>18.81076699847736</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.84018159922748</v>
       </c>
       <c r="M23">
-        <v>31.47581624692755</v>
+        <v>13.51075936829208</v>
       </c>
       <c r="N23">
-        <v>8.1370934003456</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>31.41780739546667</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.223331082579568</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.36893141947757</v>
+        <v>9.595827902055589</v>
       </c>
       <c r="D24">
-        <v>5.002231298675918</v>
+        <v>5.382655245864146</v>
       </c>
       <c r="E24">
-        <v>13.07660748240218</v>
+        <v>12.4606649784524</v>
       </c>
       <c r="F24">
-        <v>25.27030148275723</v>
+        <v>22.30273571308297</v>
       </c>
       <c r="G24">
-        <v>34.74459673882163</v>
+        <v>29.44671607684389</v>
       </c>
       <c r="H24">
-        <v>2.215759853594192</v>
+        <v>2.177455848126837</v>
       </c>
       <c r="I24">
-        <v>3.216943837896946</v>
+        <v>3.184346812988022</v>
       </c>
       <c r="J24">
-        <v>11.08733560598818</v>
+        <v>10.34172938018149</v>
       </c>
       <c r="K24">
-        <v>21.58283492058231</v>
+        <v>18.83195745240587</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>15.14267563346751</v>
       </c>
       <c r="M24">
-        <v>29.15484949246833</v>
+        <v>13.11041652671708</v>
       </c>
       <c r="N24">
-        <v>7.74071022426541</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>29.12702309978406</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.860052749403993</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.40206076610636</v>
+        <v>8.794902265666032</v>
       </c>
       <c r="D25">
-        <v>4.893733202245921</v>
+        <v>5.161325395404826</v>
       </c>
       <c r="E25">
-        <v>12.05988836116455</v>
+        <v>11.53807147841499</v>
       </c>
       <c r="F25">
-        <v>24.01273874029402</v>
+        <v>21.53519771376977</v>
       </c>
       <c r="G25">
-        <v>32.87894131290543</v>
+        <v>28.21296475324754</v>
       </c>
       <c r="H25">
-        <v>1.721390102507793</v>
+        <v>1.742146296464473</v>
       </c>
       <c r="I25">
-        <v>2.772151624076547</v>
+        <v>2.809173380279808</v>
       </c>
       <c r="J25">
-        <v>10.93555122463178</v>
+        <v>10.39228629538875</v>
       </c>
       <c r="K25">
-        <v>20.71927881051178</v>
+        <v>18.39634162474127</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>15.1311875497275</v>
       </c>
       <c r="M25">
-        <v>26.43947461963387</v>
+        <v>12.34684026597056</v>
       </c>
       <c r="N25">
-        <v>7.292705552485258</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>26.43628763525305</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.428853014696594</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
